--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8155393728165559</v>
+        <v>0.8155393728165562</v>
       </c>
       <c r="E2">
-        <v>0.8438356686776807</v>
+        <v>0.843835668677681</v>
       </c>
       <c r="F2">
         <v>0.7788657062966473</v>
@@ -430,13 +430,13 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338509</v>
+        <v>0.8450939074338513</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135677</v>
+        <v>0.8580051900135682</v>
       </c>
       <c r="M2">
-        <v>0.7945995347080247</v>
+        <v>0.7945995347080248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -444,25 +444,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864423</v>
+        <v>0.8470365899864433</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591627</v>
+        <v>0.8709849967591637</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935874</v>
+        <v>0.8168945030935882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524493</v>
+        <v>0.8727876062524501</v>
       </c>
       <c r="L3">
-        <v>0.883586443180685</v>
+        <v>0.8835864431806857</v>
       </c>
       <c r="M3">
-        <v>0.830566835871782</v>
+        <v>0.8305668358717829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022471</v>
+        <v>0.8643374531022466</v>
       </c>
       <c r="E4">
-        <v>0.885941404712736</v>
+        <v>0.8859414047127354</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769342</v>
+        <v>0.8376388935769334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015525</v>
+        <v>0.8879877139015521</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185186</v>
+        <v>0.8976438559185178</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727852</v>
+        <v>0.8501926713727845</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +496,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243571</v>
+        <v>0.8710794069243586</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017056</v>
+        <v>0.8917769491017068</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761819</v>
+        <v>0.8457007701761841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8939078014425519</v>
+        <v>0.8939078014425532</v>
       </c>
       <c r="L5">
-        <v>0.9031214384141688</v>
+        <v>0.90312143841417</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340738</v>
+        <v>0.8578197317340756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +522,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133101</v>
+        <v>0.8721843280133089</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502982</v>
+        <v>0.8927336764502968</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845072</v>
+        <v>0.8470209609845062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566424</v>
+        <v>0.8948778286566412</v>
       </c>
       <c r="L6">
-        <v>0.9040190794841196</v>
+        <v>0.9040190794841185</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355276</v>
+        <v>0.8590686818355266</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +548,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583292</v>
+        <v>0.8644294333583286</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352138</v>
+        <v>0.8860209931352132</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980634</v>
+        <v>0.8377489581980626</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672147</v>
+        <v>0.8880684949672143</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745419</v>
+        <v>0.8977185900745411</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796978</v>
+        <v>0.8502968015796971</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +574,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674692</v>
+        <v>0.8269913258674707</v>
       </c>
       <c r="E8">
-        <v>0.8536937541769666</v>
+        <v>0.853693754176968</v>
       </c>
       <c r="F8">
-        <v>0.7927374837563057</v>
+        <v>0.7927374837563081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8551652328561207</v>
+        <v>0.855165232856122</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933286</v>
+        <v>0.8673030924933299</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973493</v>
+        <v>0.8077164822973513</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +600,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E9">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F9">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L9">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E10">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F10">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L10">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +652,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E11">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F11">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L11">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +678,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E12">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F12">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L12">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +704,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E13">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F13">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L13">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +730,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E14">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F14">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L14">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +756,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E15">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F15">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L15">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,25 +782,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E16">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F16">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L16">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -808,25 +808,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E17">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F17">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L17">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -834,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E18">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F18">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L18">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -860,25 +860,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E19">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F19">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L19">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -886,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E20">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F20">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L20">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -912,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E21">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F21">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L21">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -938,25 +938,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E22">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F22">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L22">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -964,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E23">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F23">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L23">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -990,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E24">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F24">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L24">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1016,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886671</v>
+        <v>0.6959317127886638</v>
       </c>
       <c r="E25">
-        <v>0.7420833836587009</v>
+        <v>0.742083383658698</v>
       </c>
       <c r="F25">
-        <v>0.6284023105816107</v>
+        <v>0.6284023105816068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7398864097707869</v>
+        <v>0.739886409770784</v>
       </c>
       <c r="L25">
-        <v>0.7614285610235988</v>
+        <v>0.7614285610235961</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195155</v>
+        <v>0.6529706770195117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8155393728165562</v>
+        <v>0.8155393728165559</v>
       </c>
       <c r="E2">
-        <v>0.843835668677681</v>
+        <v>0.8438356686776807</v>
       </c>
       <c r="F2">
         <v>0.7788657062966473</v>
@@ -430,13 +430,13 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338513</v>
+        <v>0.8450939074338509</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135682</v>
+        <v>0.8580051900135677</v>
       </c>
       <c r="M2">
-        <v>0.7945995347080248</v>
+        <v>0.7945995347080247</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -444,25 +444,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864433</v>
+        <v>0.8470365899864423</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591637</v>
+        <v>0.8709849967591627</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935882</v>
+        <v>0.8168945030935874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524501</v>
+        <v>0.8727876062524493</v>
       </c>
       <c r="L3">
-        <v>0.8835864431806857</v>
+        <v>0.883586443180685</v>
       </c>
       <c r="M3">
-        <v>0.8305668358717829</v>
+        <v>0.830566835871782</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022466</v>
+        <v>0.8643374531022471</v>
       </c>
       <c r="E4">
-        <v>0.8859414047127354</v>
+        <v>0.885941404712736</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769334</v>
+        <v>0.8376388935769342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015521</v>
+        <v>0.8879877139015525</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185178</v>
+        <v>0.8976438559185186</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727845</v>
+        <v>0.8501926713727852</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +496,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243586</v>
+        <v>0.8710794069243571</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017068</v>
+        <v>0.8917769491017056</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761841</v>
+        <v>0.8457007701761819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8939078014425532</v>
+        <v>0.8939078014425519</v>
       </c>
       <c r="L5">
-        <v>0.90312143841417</v>
+        <v>0.9031214384141688</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340756</v>
+        <v>0.8578197317340738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +522,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133089</v>
+        <v>0.8721843280133101</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502968</v>
+        <v>0.8927336764502982</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845062</v>
+        <v>0.8470209609845072</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566412</v>
+        <v>0.8948778286566424</v>
       </c>
       <c r="L6">
-        <v>0.9040190794841185</v>
+        <v>0.9040190794841196</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355266</v>
+        <v>0.8590686818355276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +548,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583286</v>
+        <v>0.8644294333583292</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352132</v>
+        <v>0.8860209931352138</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980626</v>
+        <v>0.8377489581980634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672143</v>
+        <v>0.8880684949672147</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745411</v>
+        <v>0.8977185900745419</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796971</v>
+        <v>0.8502968015796978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +574,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674707</v>
+        <v>0.8269913258674692</v>
       </c>
       <c r="E8">
-        <v>0.853693754176968</v>
+        <v>0.8536937541769666</v>
       </c>
       <c r="F8">
-        <v>0.7927374837563081</v>
+        <v>0.7927374837563057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.855165232856122</v>
+        <v>0.8551652328561207</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933299</v>
+        <v>0.8673030924933286</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973513</v>
+        <v>0.8077164822973493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +600,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E9">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F9">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L9">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E10">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F10">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L10">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +652,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E11">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F11">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L11">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +678,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E12">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F12">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L12">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +704,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E13">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F13">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L13">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +730,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E14">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F14">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L14">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +756,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E15">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F15">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L15">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,25 +782,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E16">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F16">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L16">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -808,25 +808,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E17">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F17">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L17">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -834,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E18">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F18">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L18">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -860,25 +860,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E19">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F19">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L19">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -886,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E20">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F20">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L20">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -912,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E21">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F21">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L21">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -938,25 +938,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E22">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F22">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L22">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -964,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E23">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F23">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L23">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -990,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E24">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F24">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L24">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1016,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886638</v>
+        <v>0.6959317127886671</v>
       </c>
       <c r="E25">
-        <v>0.742083383658698</v>
+        <v>0.7420833836587009</v>
       </c>
       <c r="F25">
-        <v>0.6284023105816068</v>
+        <v>0.6284023105816107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.739886409770784</v>
+        <v>0.7398864097707869</v>
       </c>
       <c r="L25">
-        <v>0.7614285610235961</v>
+        <v>0.7614285610235988</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195117</v>
+        <v>0.6529706770195155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,25 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8155393728165559</v>
+        <v>0.81605141845263</v>
       </c>
       <c r="E2">
-        <v>0.8438356686776807</v>
+        <v>0.8442858815125236</v>
       </c>
       <c r="F2">
-        <v>0.7788657062966473</v>
+        <v>0.7794303575253089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8450939074338509</v>
+        <v>0.845578695956918</v>
       </c>
       <c r="L2">
-        <v>0.8580051900135677</v>
+        <v>0.8584456763081674</v>
       </c>
       <c r="M2">
-        <v>0.7945995347080247</v>
+        <v>0.7951490618630886</v>
+      </c>
+      <c r="N2">
+        <v>0.8909672210951531</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -444,25 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8470365899864423</v>
+        <v>0.8474159862693558</v>
       </c>
       <c r="E3">
-        <v>0.8709849967591627</v>
+        <v>0.8713204730545681</v>
       </c>
       <c r="F3">
-        <v>0.8168945030935874</v>
+        <v>0.8173041623951881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8727876062524493</v>
+        <v>0.8731505769396581</v>
       </c>
       <c r="L3">
-        <v>0.883586443180685</v>
+        <v>0.8839158173904362</v>
       </c>
       <c r="M3">
-        <v>0.830566835871782</v>
+        <v>0.8309676779123344</v>
+      </c>
+      <c r="N3">
+        <v>0.9108344804692508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -470,25 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8643374531022471</v>
+        <v>0.8646583121683039</v>
       </c>
       <c r="E4">
-        <v>0.885941404712736</v>
+        <v>0.8862258371534941</v>
       </c>
       <c r="F4">
-        <v>0.8376388935769342</v>
+        <v>0.8379819589020343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8879877139015525</v>
+        <v>0.8882962998879926</v>
       </c>
       <c r="L4">
-        <v>0.8976438559185186</v>
+        <v>0.8979236286349028</v>
       </c>
       <c r="M4">
-        <v>0.8501926713727852</v>
+        <v>0.8505292378310335</v>
+      </c>
+      <c r="N4">
+        <v>0.9217609854452625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8710794069243571</v>
+        <v>0.8713794873366864</v>
       </c>
       <c r="E5">
-        <v>0.8917769491017056</v>
+        <v>0.8920431959037328</v>
       </c>
       <c r="F5">
-        <v>0.8457007701761819</v>
+        <v>0.8460204826970334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8939078014425519</v>
+        <v>0.8941969709153872</v>
       </c>
       <c r="L5">
-        <v>0.9031214384141688</v>
+        <v>0.9033835074701964</v>
       </c>
       <c r="M5">
-        <v>0.8578197317340738</v>
+        <v>0.8581336927003911</v>
+      </c>
+      <c r="N5">
+        <v>0.9260187721095116</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8721843280133101</v>
+        <v>0.8724810989925363</v>
       </c>
       <c r="E6">
-        <v>0.8927336764502982</v>
+        <v>0.892997023495904</v>
       </c>
       <c r="F6">
-        <v>0.8470209609845072</v>
+        <v>0.8473369682333171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8948778286566424</v>
+        <v>0.8951638998306939</v>
       </c>
       <c r="L6">
-        <v>0.9040190794841196</v>
+        <v>0.9042783239428664</v>
       </c>
       <c r="M6">
-        <v>0.8590686818355276</v>
+        <v>0.8593790527626687</v>
+      </c>
+      <c r="N6">
+        <v>0.9267164910147324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8644294333583292</v>
+        <v>0.8647500019193861</v>
       </c>
       <c r="E7">
-        <v>0.8860209931352138</v>
+        <v>0.8863051715698632</v>
       </c>
       <c r="F7">
-        <v>0.8377489581980634</v>
+        <v>0.8380916959794112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8880684949672147</v>
+        <v>0.8883768099179217</v>
       </c>
       <c r="L7">
-        <v>0.8977185900745419</v>
+        <v>0.8979981156397562</v>
       </c>
       <c r="M7">
-        <v>0.8502968015796978</v>
+        <v>0.8506330512226132</v>
+      </c>
+      <c r="N7">
+        <v>0.9218190782695193</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8269913258674692</v>
+        <v>0.8274503852138513</v>
       </c>
       <c r="E8">
-        <v>0.8536937541769666</v>
+        <v>0.8540982791669804</v>
       </c>
       <c r="F8">
-        <v>0.7927374837563057</v>
+        <v>0.7932395802089161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8551652328561207</v>
+        <v>0.8556015684648262</v>
       </c>
       <c r="L8">
-        <v>0.8673030924933286</v>
+        <v>0.8676993880065439</v>
       </c>
       <c r="M8">
-        <v>0.8077164822973493</v>
+        <v>0.8082061372491539</v>
+      </c>
+      <c r="N8">
+        <v>0.8981843178406349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E9">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F9">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L9">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M9">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N9">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E10">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F10">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L10">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M10">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N10">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E11">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F11">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L11">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M11">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N11">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E12">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F12">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L12">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M12">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N12">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E13">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F13">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L13">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M13">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N13">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E14">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F14">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L14">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M14">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N14">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E15">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F15">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L15">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M15">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N15">
+        <v>0.8173213790915836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,259 +824,289 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E16">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F16">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L16">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M16">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N16">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E17">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F17">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L17">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M17">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N17">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E18">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F18">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L18">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M18">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N18">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E19">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F19">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L19">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M19">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N19">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E20">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F20">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L20">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M20">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N20">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E21">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F21">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L21">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M21">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N21">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E22">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F22">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L22">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M22">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N22">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E23">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F23">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L23">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M23">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N23">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E24">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F24">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L24">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M24">
-        <v>0.6529706770195155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N24">
+        <v>0.8173213790915836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6959317127886671</v>
+        <v>0.6986750038768076</v>
       </c>
       <c r="E25">
-        <v>0.7420833836587009</v>
+        <v>0.7444057493681762</v>
       </c>
       <c r="F25">
-        <v>0.6284023105816107</v>
+        <v>0.6319183021165773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7398864097707869</v>
+        <v>0.742351112000603</v>
       </c>
       <c r="L25">
-        <v>0.7614285610235988</v>
+        <v>0.7636673353645271</v>
       </c>
       <c r="M25">
-        <v>0.6529706770195155</v>
+        <v>0.6562834902833137</v>
+      </c>
+      <c r="N25">
+        <v>0.8173213790915836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.008263919370545</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.030243686282349</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.021684861039946</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.028540893790462</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.047084953382299</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.030200236532478</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.041297164045321</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.032850136667545</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.039616428318993</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.013516105912585</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.01347614121852</v>
+      </c>
+      <c r="D3">
+        <v>1.032718288500819</v>
+      </c>
+      <c r="E3">
+        <v>1.026100793462978</v>
+      </c>
+      <c r="F3">
+        <v>1.033363920158284</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.048394920135688</v>
+      </c>
+      <c r="J3">
+        <v>1.033606055004312</v>
+      </c>
+      <c r="K3">
+        <v>1.042948972120388</v>
+      </c>
+      <c r="L3">
+        <v>1.036410256280879</v>
+      </c>
+      <c r="M3">
+        <v>1.043586984635954</v>
+      </c>
+      <c r="N3">
+        <v>1.014690960224276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.016773965437366</v>
+      </c>
+      <c r="D4">
+        <v>1.034290145342307</v>
+      </c>
+      <c r="E4">
+        <v>1.028900893931442</v>
+      </c>
+      <c r="F4">
+        <v>1.036422516121642</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.049215444379503</v>
+      </c>
+      <c r="J4">
+        <v>1.035758110961889</v>
+      </c>
+      <c r="K4">
+        <v>1.043991609915022</v>
+      </c>
+      <c r="L4">
+        <v>1.038662588066281</v>
+      </c>
+      <c r="M4">
+        <v>1.046100362223483</v>
+      </c>
+      <c r="N4">
+        <v>1.015432749702266</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.018143175367825</v>
+      </c>
+      <c r="D5">
+        <v>1.034944124744762</v>
+      </c>
+      <c r="E5">
+        <v>1.0300648665651</v>
+      </c>
+      <c r="F5">
+        <v>1.037694035630677</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.049554071957078</v>
+      </c>
+      <c r="J5">
+        <v>1.036650891318939</v>
+      </c>
+      <c r="K5">
+        <v>1.044423833358356</v>
+      </c>
+      <c r="L5">
+        <v>1.039597632842651</v>
+      </c>
+      <c r="M5">
+        <v>1.047144110805031</v>
+      </c>
+      <c r="N5">
+        <v>1.015740335609143</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.018372083556459</v>
+      </c>
+      <c r="D6">
+        <v>1.03505353601904</v>
+      </c>
+      <c r="E6">
+        <v>1.030259544087779</v>
+      </c>
+      <c r="F6">
+        <v>1.037906706302205</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.049610563122106</v>
+      </c>
+      <c r="J6">
+        <v>1.036800105056459</v>
+      </c>
+      <c r="K6">
+        <v>1.044496052527315</v>
+      </c>
+      <c r="L6">
+        <v>1.039753949463633</v>
+      </c>
+      <c r="M6">
+        <v>1.047318619578868</v>
+      </c>
+      <c r="N6">
+        <v>1.015791734818239</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.016792327530984</v>
+      </c>
+      <c r="D7">
+        <v>1.034298910418691</v>
+      </c>
+      <c r="E7">
+        <v>1.028916498137603</v>
+      </c>
+      <c r="F7">
+        <v>1.036439561724662</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.049219993755957</v>
+      </c>
+      <c r="J7">
+        <v>1.035770086701224</v>
+      </c>
+      <c r="K7">
+        <v>1.043997409062845</v>
+      </c>
+      <c r="L7">
+        <v>1.038675128112242</v>
+      </c>
+      <c r="M7">
+        <v>1.046114358802211</v>
+      </c>
+      <c r="N7">
+        <v>1.015436876239304</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.010041355064093</v>
+      </c>
+      <c r="D8">
+        <v>1.031086198175291</v>
+      </c>
+      <c r="E8">
+        <v>1.023189438873904</v>
+      </c>
+      <c r="F8">
+        <v>1.030184103169057</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.047533381803023</v>
+      </c>
+      <c r="J8">
+        <v>1.031362235210869</v>
+      </c>
+      <c r="K8">
+        <v>1.041860928400508</v>
+      </c>
+      <c r="L8">
+        <v>1.034064195500205</v>
+      </c>
+      <c r="M8">
+        <v>1.040970163245876</v>
+      </c>
+      <c r="N8">
+        <v>1.013917058781781</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9975375838116701</v>
+      </c>
+      <c r="D9">
+        <v>1.02519029212501</v>
+      </c>
+      <c r="E9">
+        <v>1.012633415813657</v>
+      </c>
+      <c r="F9">
+        <v>1.018656713675267</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.044345561298852</v>
+      </c>
+      <c r="J9">
+        <v>1.023177597004042</v>
+      </c>
+      <c r="K9">
+        <v>1.03788747990447</v>
+      </c>
+      <c r="L9">
+        <v>1.025524796800885</v>
+      </c>
+      <c r="M9">
+        <v>1.031454180727364</v>
+      </c>
+      <c r="N9">
+        <v>1.011090798642405</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9887410483604646</v>
+      </c>
+      <c r="D10">
+        <v>1.021087380421354</v>
+      </c>
+      <c r="E10">
+        <v>1.005245891760282</v>
+      </c>
+      <c r="F10">
+        <v>1.010590689600481</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.042062996963817</v>
+      </c>
+      <c r="J10">
+        <v>1.017408603618662</v>
+      </c>
+      <c r="K10">
+        <v>1.035086055225474</v>
+      </c>
+      <c r="L10">
+        <v>1.019521071606983</v>
+      </c>
+      <c r="M10">
+        <v>1.024771322951791</v>
+      </c>
+      <c r="N10">
+        <v>1.009096371642017</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9848099326352208</v>
+      </c>
+      <c r="D11">
+        <v>1.019266369081791</v>
+      </c>
+      <c r="E11">
+        <v>1.001954611468205</v>
+      </c>
+      <c r="F11">
+        <v>1.006997330885078</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.041034285533767</v>
+      </c>
+      <c r="J11">
+        <v>1.014828580178588</v>
+      </c>
+      <c r="K11">
+        <v>1.03383387187107</v>
+      </c>
+      <c r="L11">
+        <v>1.016839760578449</v>
+      </c>
+      <c r="M11">
+        <v>1.021788483328233</v>
+      </c>
+      <c r="N11">
+        <v>1.008203992093533</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9833301867360109</v>
+      </c>
+      <c r="D12">
+        <v>1.018582962743577</v>
+      </c>
+      <c r="E12">
+        <v>1.000717325805711</v>
+      </c>
+      <c r="F12">
+        <v>1.005646507219069</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.040645833635695</v>
+      </c>
+      <c r="J12">
+        <v>1.01385719085513</v>
+      </c>
+      <c r="K12">
+        <v>1.033362597079996</v>
+      </c>
+      <c r="L12">
+        <v>1.015830795876917</v>
+      </c>
+      <c r="M12">
+        <v>1.020666322745748</v>
+      </c>
+      <c r="N12">
+        <v>1.007867954259624</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9836485025449971</v>
+      </c>
+      <c r="D13">
+        <v>1.018729878092902</v>
+      </c>
+      <c r="E13">
+        <v>1.000983410347422</v>
+      </c>
+      <c r="F13">
+        <v>1.005937007846198</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.040729449670234</v>
+      </c>
+      <c r="J13">
+        <v>1.014066160296404</v>
+      </c>
+      <c r="K13">
+        <v>1.033463970471789</v>
+      </c>
+      <c r="L13">
+        <v>1.016047823312989</v>
+      </c>
+      <c r="M13">
+        <v>1.020907686398629</v>
+      </c>
+      <c r="N13">
+        <v>1.007940246390337</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.984688022591002</v>
+      </c>
+      <c r="D14">
+        <v>1.019210023313262</v>
+      </c>
+      <c r="E14">
+        <v>1.001852643383994</v>
+      </c>
+      <c r="F14">
+        <v>1.006886005434329</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.041002307073522</v>
+      </c>
+      <c r="J14">
+        <v>1.014748555575758</v>
+      </c>
+      <c r="K14">
+        <v>1.033795043450362</v>
+      </c>
+      <c r="L14">
+        <v>1.016756629050097</v>
+      </c>
+      <c r="M14">
+        <v>1.021696019813654</v>
+      </c>
+      <c r="N14">
+        <v>1.008176309779366</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9853258763846354</v>
+      </c>
+      <c r="D15">
+        <v>1.01950491863133</v>
+      </c>
+      <c r="E15">
+        <v>1.002386223788225</v>
+      </c>
+      <c r="F15">
+        <v>1.007468552067856</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.041169574266084</v>
+      </c>
+      <c r="J15">
+        <v>1.015167249153021</v>
+      </c>
+      <c r="K15">
+        <v>1.033998203785499</v>
+      </c>
+      <c r="L15">
+        <v>1.017191601086017</v>
+      </c>
+      <c r="M15">
+        <v>1.022179830851623</v>
+      </c>
+      <c r="N15">
+        <v>1.008321143221029</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9889992695421508</v>
+      </c>
+      <c r="D16">
+        <v>1.021207271592533</v>
+      </c>
+      <c r="E16">
+        <v>1.00546230300215</v>
+      </c>
+      <c r="F16">
+        <v>1.010826966908003</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.042130395623195</v>
+      </c>
+      <c r="J16">
+        <v>1.017578042225326</v>
+      </c>
+      <c r="K16">
+        <v>1.035168310586052</v>
+      </c>
+      <c r="L16">
+        <v>1.019697239287283</v>
+      </c>
+      <c r="M16">
+        <v>1.024967338737875</v>
+      </c>
+      <c r="N16">
+        <v>1.009154969160601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9912699695776682</v>
+      </c>
+      <c r="D17">
+        <v>1.022262995545459</v>
+      </c>
+      <c r="E17">
+        <v>1.007366506170283</v>
+      </c>
+      <c r="F17">
+        <v>1.012905994020595</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.042722100203958</v>
+      </c>
+      <c r="J17">
+        <v>1.019067813647731</v>
+      </c>
+      <c r="K17">
+        <v>1.03589161803426</v>
+      </c>
+      <c r="L17">
+        <v>1.021246595015705</v>
+      </c>
+      <c r="M17">
+        <v>1.026691456228146</v>
+      </c>
+      <c r="N17">
+        <v>1.009670134574898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9925827303437738</v>
+      </c>
+      <c r="D18">
+        <v>1.022874518620507</v>
+      </c>
+      <c r="E18">
+        <v>1.008468339540398</v>
+      </c>
+      <c r="F18">
+        <v>1.014109006325358</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.043063358819842</v>
+      </c>
+      <c r="J18">
+        <v>1.019928911760033</v>
+      </c>
+      <c r="K18">
+        <v>1.036309753609136</v>
+      </c>
+      <c r="L18">
+        <v>1.022142482070978</v>
+      </c>
+      <c r="M18">
+        <v>1.027688564400674</v>
+      </c>
+      <c r="N18">
+        <v>1.009967862582061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9930283981611551</v>
+      </c>
+      <c r="D19">
+        <v>1.023082318682516</v>
+      </c>
+      <c r="E19">
+        <v>1.008842559398086</v>
+      </c>
+      <c r="F19">
+        <v>1.014517593654519</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.043179070491459</v>
+      </c>
+      <c r="J19">
+        <v>1.020221211988306</v>
+      </c>
+      <c r="K19">
+        <v>1.036451697760951</v>
+      </c>
+      <c r="L19">
+        <v>1.022446650440978</v>
+      </c>
+      <c r="M19">
+        <v>1.0280271275252</v>
+      </c>
+      <c r="N19">
+        <v>1.010068919223303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9910275635190584</v>
+      </c>
+      <c r="D20">
+        <v>1.022150169572087</v>
+      </c>
+      <c r="E20">
+        <v>1.007163125290204</v>
+      </c>
+      <c r="F20">
+        <v>1.012683938814919</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.042659018429267</v>
+      </c>
+      <c r="J20">
+        <v>1.018908793409722</v>
+      </c>
+      <c r="K20">
+        <v>1.035814404568781</v>
+      </c>
+      <c r="L20">
+        <v>1.021081178425762</v>
+      </c>
+      <c r="M20">
+        <v>1.026507363771746</v>
+      </c>
+      <c r="N20">
+        <v>1.009615149308815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.984382459806501</v>
+      </c>
+      <c r="D21">
+        <v>1.019068828547341</v>
+      </c>
+      <c r="E21">
+        <v>1.001597090648286</v>
+      </c>
+      <c r="F21">
+        <v>1.006607001557196</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.040922134830108</v>
+      </c>
+      <c r="J21">
+        <v>1.01454797370736</v>
+      </c>
+      <c r="K21">
+        <v>1.033697723035472</v>
+      </c>
+      <c r="L21">
+        <v>1.016548268698765</v>
+      </c>
+      <c r="M21">
+        <v>1.021464274147261</v>
+      </c>
+      <c r="N21">
+        <v>1.008106923168566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9800906119012416</v>
+      </c>
+      <c r="D22">
+        <v>1.017090777119801</v>
+      </c>
+      <c r="E22">
+        <v>0.9980116366823283</v>
+      </c>
+      <c r="F22">
+        <v>1.002692563637203</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.039793234151809</v>
+      </c>
+      <c r="J22">
+        <v>1.011730220338725</v>
+      </c>
+      <c r="K22">
+        <v>1.032331098985307</v>
+      </c>
+      <c r="L22">
+        <v>1.013622586616508</v>
+      </c>
+      <c r="M22">
+        <v>1.018210868364587</v>
+      </c>
+      <c r="N22">
+        <v>1.007132074349766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9823770177014843</v>
+      </c>
+      <c r="D23">
+        <v>1.018143352502645</v>
+      </c>
+      <c r="E23">
+        <v>0.9999208024290936</v>
+      </c>
+      <c r="F23">
+        <v>1.004776896834924</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.040395278963774</v>
+      </c>
+      <c r="J23">
+        <v>1.013231423004798</v>
+      </c>
+      <c r="K23">
+        <v>1.033059062173849</v>
+      </c>
+      <c r="L23">
+        <v>1.015180980525048</v>
+      </c>
+      <c r="M23">
+        <v>1.019943680159709</v>
+      </c>
+      <c r="N23">
+        <v>1.007651465453283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9911371324512319</v>
+      </c>
+      <c r="D24">
+        <v>1.022201163922853</v>
+      </c>
+      <c r="E24">
+        <v>1.007255051659819</v>
+      </c>
+      <c r="F24">
+        <v>1.012784305752311</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.042687534314951</v>
+      </c>
+      <c r="J24">
+        <v>1.018980672047393</v>
+      </c>
+      <c r="K24">
+        <v>1.035849305601667</v>
+      </c>
+      <c r="L24">
+        <v>1.021155947192809</v>
+      </c>
+      <c r="M24">
+        <v>1.02659057356145</v>
+      </c>
+      <c r="N24">
+        <v>1.00964000329276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.000847245655113</v>
+      </c>
+      <c r="D25">
+        <v>1.026743771156237</v>
+      </c>
+      <c r="E25">
+        <v>1.015421160964119</v>
+      </c>
+      <c r="F25">
+        <v>1.021700730843395</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045196469024432</v>
+      </c>
+      <c r="J25">
+        <v>1.025346130207497</v>
+      </c>
+      <c r="K25">
+        <v>1.038940640141294</v>
+      </c>
+      <c r="L25">
+        <v>1.027784708688558</v>
+      </c>
+      <c r="M25">
+        <v>1.033971258449387</v>
+      </c>
+      <c r="N25">
+        <v>1.011840058428739</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008263919370545</v>
+        <v>1.043008604067959</v>
       </c>
       <c r="D2">
-        <v>1.030243686282349</v>
+        <v>1.036728855291699</v>
       </c>
       <c r="E2">
-        <v>1.021684861039946</v>
+        <v>1.050379973544527</v>
       </c>
       <c r="F2">
-        <v>1.028540893790462</v>
+        <v>1.059593659591669</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047084953382299</v>
+        <v>1.039711868729749</v>
       </c>
       <c r="J2">
-        <v>1.030200236532478</v>
+        <v>1.048081359011294</v>
       </c>
       <c r="K2">
-        <v>1.041297164045321</v>
+        <v>1.039521765596109</v>
       </c>
       <c r="L2">
-        <v>1.032850136667545</v>
+        <v>1.05313441241268</v>
       </c>
       <c r="M2">
-        <v>1.039616428318993</v>
+        <v>1.062322739536633</v>
       </c>
       <c r="N2">
-        <v>1.013516105912585</v>
+        <v>1.019850971105894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01347614121852</v>
+        <v>1.044103394530057</v>
       </c>
       <c r="D3">
-        <v>1.032718288500819</v>
+        <v>1.037250246682439</v>
       </c>
       <c r="E3">
-        <v>1.026100793462978</v>
+        <v>1.051359533167427</v>
       </c>
       <c r="F3">
-        <v>1.033363920158284</v>
+        <v>1.060671129212168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048394920135688</v>
+        <v>1.039932449134138</v>
       </c>
       <c r="J3">
-        <v>1.033606055004312</v>
+        <v>1.048822099949598</v>
       </c>
       <c r="K3">
-        <v>1.042948972120388</v>
+        <v>1.039853583086355</v>
       </c>
       <c r="L3">
-        <v>1.036410256280879</v>
+        <v>1.053925976040393</v>
       </c>
       <c r="M3">
-        <v>1.043586984635954</v>
+        <v>1.063213803428208</v>
       </c>
       <c r="N3">
-        <v>1.014690960224276</v>
+        <v>1.020102494061603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016773965437366</v>
+        <v>1.044811976759894</v>
       </c>
       <c r="D4">
-        <v>1.034290145342307</v>
+        <v>1.037587837719835</v>
       </c>
       <c r="E4">
-        <v>1.028900893931442</v>
+        <v>1.051993887745394</v>
       </c>
       <c r="F4">
-        <v>1.036422516121642</v>
+        <v>1.061368976404196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049215444379503</v>
+        <v>1.040074095910541</v>
       </c>
       <c r="J4">
-        <v>1.035758110961889</v>
+        <v>1.049301023533619</v>
       </c>
       <c r="K4">
-        <v>1.043991609915022</v>
+        <v>1.040067793559723</v>
       </c>
       <c r="L4">
-        <v>1.038662588066281</v>
+        <v>1.054438067228384</v>
       </c>
       <c r="M4">
-        <v>1.046100362223483</v>
+        <v>1.063790434252316</v>
       </c>
       <c r="N4">
-        <v>1.015432749702266</v>
+        <v>1.020264979662287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018143175367825</v>
+        <v>1.045109908061339</v>
       </c>
       <c r="D5">
-        <v>1.034944124744762</v>
+        <v>1.037729811360415</v>
       </c>
       <c r="E5">
-        <v>1.0300648665651</v>
+        <v>1.052260693164548</v>
       </c>
       <c r="F5">
-        <v>1.037694035630677</v>
+        <v>1.061662507294455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049554071957078</v>
+        <v>1.04013338451634</v>
       </c>
       <c r="J5">
-        <v>1.036650891318939</v>
+        <v>1.049502270632579</v>
       </c>
       <c r="K5">
-        <v>1.044423833358356</v>
+        <v>1.040157727762183</v>
       </c>
       <c r="L5">
-        <v>1.039597632842651</v>
+        <v>1.054653325411766</v>
       </c>
       <c r="M5">
-        <v>1.047144110805031</v>
+        <v>1.064032862300714</v>
       </c>
       <c r="N5">
-        <v>1.015740335609143</v>
+        <v>1.020333224641996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018372083556459</v>
+        <v>1.045159934588733</v>
       </c>
       <c r="D6">
-        <v>1.03505353601904</v>
+        <v>1.037753652274269</v>
       </c>
       <c r="E6">
-        <v>1.030259544087779</v>
+        <v>1.052305498158192</v>
       </c>
       <c r="F6">
-        <v>1.037906706302205</v>
+        <v>1.061711801559738</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049610563122106</v>
+        <v>1.040143324096326</v>
       </c>
       <c r="J6">
-        <v>1.036800105056459</v>
+        <v>1.049536055485459</v>
       </c>
       <c r="K6">
-        <v>1.044496052527315</v>
+        <v>1.040172821058902</v>
       </c>
       <c r="L6">
-        <v>1.039753949463633</v>
+        <v>1.054689466739099</v>
       </c>
       <c r="M6">
-        <v>1.047318619578868</v>
+        <v>1.064073567760654</v>
       </c>
       <c r="N6">
-        <v>1.015791734818239</v>
+        <v>1.020344679518999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016792327530984</v>
+        <v>1.044815957561826</v>
       </c>
       <c r="D7">
-        <v>1.034298910418691</v>
+        <v>1.037589734582338</v>
       </c>
       <c r="E7">
-        <v>1.028916498137603</v>
+        <v>1.051997452330492</v>
       </c>
       <c r="F7">
-        <v>1.036439561724662</v>
+        <v>1.0613728979659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049219993755957</v>
+        <v>1.040074889148616</v>
       </c>
       <c r="J7">
-        <v>1.035770086701224</v>
+        <v>1.049303712970333</v>
       </c>
       <c r="K7">
-        <v>1.043997409062845</v>
+        <v>1.040068995736929</v>
       </c>
       <c r="L7">
-        <v>1.038675128112242</v>
+        <v>1.054440943617053</v>
       </c>
       <c r="M7">
-        <v>1.046114358802211</v>
+        <v>1.06379367353911</v>
       </c>
       <c r="N7">
-        <v>1.015436876239304</v>
+        <v>1.020265891806578</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010041355064093</v>
+        <v>1.043378556645825</v>
       </c>
       <c r="D8">
-        <v>1.031086198175291</v>
+        <v>1.036905016443673</v>
       </c>
       <c r="E8">
-        <v>1.023189438873904</v>
+        <v>1.050710913698658</v>
       </c>
       <c r="F8">
-        <v>1.030184103169057</v>
+        <v>1.059957660292417</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047533381803023</v>
+        <v>1.039786639069587</v>
       </c>
       <c r="J8">
-        <v>1.031362235210869</v>
+        <v>1.048331775589814</v>
       </c>
       <c r="K8">
-        <v>1.041860928400508</v>
+        <v>1.039634007460016</v>
       </c>
       <c r="L8">
-        <v>1.034064195500205</v>
+        <v>1.053401946340562</v>
       </c>
       <c r="M8">
-        <v>1.040970163245876</v>
+        <v>1.062623867667314</v>
       </c>
       <c r="N8">
-        <v>1.013917058781781</v>
+        <v>1.019936029571964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9975375838116701</v>
+        <v>1.040847032691273</v>
       </c>
       <c r="D9">
-        <v>1.02519029212501</v>
+        <v>1.035700167930533</v>
       </c>
       <c r="E9">
-        <v>1.012633415813657</v>
+        <v>1.04844781768299</v>
       </c>
       <c r="F9">
-        <v>1.018656713675267</v>
+        <v>1.057468836342651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044345561298852</v>
+        <v>1.039270420835465</v>
       </c>
       <c r="J9">
-        <v>1.023177597004042</v>
+        <v>1.046616151749506</v>
       </c>
       <c r="K9">
-        <v>1.03788747990447</v>
+        <v>1.038863724109309</v>
       </c>
       <c r="L9">
-        <v>1.025524796800885</v>
+        <v>1.051570316696272</v>
       </c>
       <c r="M9">
-        <v>1.031454180727364</v>
+        <v>1.060562934571793</v>
       </c>
       <c r="N9">
-        <v>1.011090798642405</v>
+        <v>1.019352735012046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9887410483604646</v>
+        <v>1.039160240285105</v>
       </c>
       <c r="D10">
-        <v>1.021087380421354</v>
+        <v>1.034898165252285</v>
       </c>
       <c r="E10">
-        <v>1.005245891760282</v>
+        <v>1.046941757174747</v>
       </c>
       <c r="F10">
-        <v>1.010590689600481</v>
+        <v>1.055812996406627</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042062996963817</v>
+        <v>1.03892072262494</v>
       </c>
       <c r="J10">
-        <v>1.017408603618662</v>
+        <v>1.045470426569999</v>
       </c>
       <c r="K10">
-        <v>1.035086055225474</v>
+        <v>1.038347705177004</v>
       </c>
       <c r="L10">
-        <v>1.019521071606983</v>
+        <v>1.050348712311289</v>
       </c>
       <c r="M10">
-        <v>1.024771322951791</v>
+        <v>1.059189267635125</v>
       </c>
       <c r="N10">
-        <v>1.009096371642017</v>
+        <v>1.018962511594702</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9848099326352208</v>
+        <v>1.038430045435851</v>
       </c>
       <c r="D11">
-        <v>1.019266369081791</v>
+        <v>1.034551197302421</v>
       </c>
       <c r="E11">
-        <v>1.001954611468205</v>
+        <v>1.04629025199474</v>
       </c>
       <c r="F11">
-        <v>1.006997330885078</v>
+        <v>1.055096801512137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041034285533767</v>
+        <v>1.038767985842994</v>
       </c>
       <c r="J11">
-        <v>1.014828580178588</v>
+        <v>1.044973846509021</v>
       </c>
       <c r="K11">
-        <v>1.03383387187107</v>
+        <v>1.03812368013332</v>
       </c>
       <c r="L11">
-        <v>1.016839760578449</v>
+        <v>1.049819622428933</v>
       </c>
       <c r="M11">
-        <v>1.021788483328233</v>
+        <v>1.058594524396468</v>
       </c>
       <c r="N11">
-        <v>1.008203992093533</v>
+        <v>1.018793219310591</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9833301867360109</v>
+        <v>1.038158847566999</v>
       </c>
       <c r="D12">
-        <v>1.018582962743577</v>
+        <v>1.034422365017488</v>
       </c>
       <c r="E12">
-        <v>1.000717325805711</v>
+        <v>1.046048348550119</v>
       </c>
       <c r="F12">
-        <v>1.005646507219069</v>
+        <v>1.054830894242078</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040645833635695</v>
+        <v>1.038711055248649</v>
       </c>
       <c r="J12">
-        <v>1.01385719085513</v>
+        <v>1.044789323351561</v>
       </c>
       <c r="K12">
-        <v>1.033362597079996</v>
+        <v>1.038040380003266</v>
       </c>
       <c r="L12">
-        <v>1.015830795876917</v>
+        <v>1.049623075791813</v>
       </c>
       <c r="M12">
-        <v>1.020666322745748</v>
+        <v>1.058373619839432</v>
       </c>
       <c r="N12">
-        <v>1.007867954259624</v>
+        <v>1.018730288178165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9836485025449971</v>
+        <v>1.038217019128038</v>
       </c>
       <c r="D13">
-        <v>1.018729878092902</v>
+        <v>1.034449997829352</v>
       </c>
       <c r="E13">
-        <v>1.000983410347422</v>
+        <v>1.046100233378356</v>
       </c>
       <c r="F13">
-        <v>1.005937007846198</v>
+        <v>1.054887926850861</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040729449670234</v>
+        <v>1.038723275981272</v>
       </c>
       <c r="J13">
-        <v>1.014066160296404</v>
+        <v>1.044828907418923</v>
       </c>
       <c r="K13">
-        <v>1.033463970471789</v>
+        <v>1.038058252101125</v>
       </c>
       <c r="L13">
-        <v>1.016047823312989</v>
+        <v>1.049665236576815</v>
       </c>
       <c r="M13">
-        <v>1.020907686398629</v>
+        <v>1.058421004183947</v>
       </c>
       <c r="N13">
-        <v>1.007940246390337</v>
+        <v>1.018743789310409</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.984688022591002</v>
+        <v>1.038407627547335</v>
       </c>
       <c r="D14">
-        <v>1.019210023313262</v>
+        <v>1.034540547017975</v>
       </c>
       <c r="E14">
-        <v>1.001852643383994</v>
+        <v>1.046270254250443</v>
       </c>
       <c r="F14">
-        <v>1.006886005434329</v>
+        <v>1.055074819098442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041002307073522</v>
+        <v>1.038763283966892</v>
       </c>
       <c r="J14">
-        <v>1.014748555575758</v>
+        <v>1.044958595220405</v>
       </c>
       <c r="K14">
-        <v>1.033795043450362</v>
+        <v>1.038116796294493</v>
       </c>
       <c r="L14">
-        <v>1.016756629050097</v>
+        <v>1.049803376212156</v>
       </c>
       <c r="M14">
-        <v>1.021696019813654</v>
+        <v>1.058576264161753</v>
       </c>
       <c r="N14">
-        <v>1.008176309779366</v>
+        <v>1.018788018391248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9853258763846354</v>
+        <v>1.038525071510203</v>
       </c>
       <c r="D15">
-        <v>1.01950491863133</v>
+        <v>1.034596343636686</v>
       </c>
       <c r="E15">
-        <v>1.002386223788225</v>
+        <v>1.046375022257715</v>
       </c>
       <c r="F15">
-        <v>1.007468552067856</v>
+        <v>1.055189985402522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041169574266084</v>
+        <v>1.038787908063082</v>
       </c>
       <c r="J15">
-        <v>1.015167249153021</v>
+        <v>1.045038490716568</v>
       </c>
       <c r="K15">
-        <v>1.033998203785499</v>
+        <v>1.038152855763158</v>
       </c>
       <c r="L15">
-        <v>1.017191601086017</v>
+        <v>1.049888486070198</v>
       </c>
       <c r="M15">
-        <v>1.022179830851623</v>
+        <v>1.058671926225678</v>
       </c>
       <c r="N15">
-        <v>1.008321143221029</v>
+        <v>1.018815262971331</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9889992695421508</v>
+        <v>1.039208705016029</v>
       </c>
       <c r="D16">
-        <v>1.021207271592533</v>
+        <v>1.034921198900092</v>
       </c>
       <c r="E16">
-        <v>1.00546230300215</v>
+        <v>1.046985008687264</v>
       </c>
       <c r="F16">
-        <v>1.010826966908003</v>
+        <v>1.055860544647272</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042130395623195</v>
+        <v>1.03893083157335</v>
       </c>
       <c r="J16">
-        <v>1.017578042225326</v>
+        <v>1.045503372970716</v>
       </c>
       <c r="K16">
-        <v>1.035168310586052</v>
+        <v>1.038362560706739</v>
       </c>
       <c r="L16">
-        <v>1.019697239287283</v>
+        <v>1.050383823586051</v>
       </c>
       <c r="M16">
-        <v>1.024967338737875</v>
+        <v>1.0592287401258</v>
       </c>
       <c r="N16">
-        <v>1.009154969160601</v>
+        <v>1.018973740168471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9912699695776682</v>
+        <v>1.039637582643728</v>
       </c>
       <c r="D17">
-        <v>1.022262995545459</v>
+        <v>1.035125054476712</v>
       </c>
       <c r="E17">
-        <v>1.007366506170283</v>
+        <v>1.047367805514918</v>
       </c>
       <c r="F17">
-        <v>1.012905994020595</v>
+        <v>1.056281381518331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042722100203958</v>
+        <v>1.039020131777112</v>
       </c>
       <c r="J17">
-        <v>1.019067813647731</v>
+        <v>1.045794854504768</v>
       </c>
       <c r="K17">
-        <v>1.03589161803426</v>
+        <v>1.038493946834652</v>
       </c>
       <c r="L17">
-        <v>1.021246595015705</v>
+        <v>1.050694501689764</v>
       </c>
       <c r="M17">
-        <v>1.026691456228146</v>
+        <v>1.059578031808623</v>
       </c>
       <c r="N17">
-        <v>1.009670134574898</v>
+        <v>1.019073062317384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9925827303437738</v>
+        <v>1.039887758796704</v>
       </c>
       <c r="D18">
-        <v>1.022874518620507</v>
+        <v>1.03524398927799</v>
       </c>
       <c r="E18">
-        <v>1.008468339540398</v>
+        <v>1.047591145107153</v>
       </c>
       <c r="F18">
-        <v>1.014109006325358</v>
+        <v>1.05652692522429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043063358819842</v>
+        <v>1.039072092166613</v>
       </c>
       <c r="J18">
-        <v>1.019928911760033</v>
+        <v>1.0459648250714</v>
       </c>
       <c r="K18">
-        <v>1.036309753609136</v>
+        <v>1.038570525606724</v>
       </c>
       <c r="L18">
-        <v>1.022142482070978</v>
+        <v>1.05087570270578</v>
       </c>
       <c r="M18">
-        <v>1.027688564400674</v>
+        <v>1.059781773874597</v>
       </c>
       <c r="N18">
-        <v>1.009967862582061</v>
+        <v>1.019130964079106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9930283981611551</v>
+        <v>1.039973065657229</v>
       </c>
       <c r="D19">
-        <v>1.023082318682516</v>
+        <v>1.035284547900148</v>
       </c>
       <c r="E19">
-        <v>1.008842559398086</v>
+        <v>1.047667308425874</v>
       </c>
       <c r="F19">
-        <v>1.014517593654519</v>
+        <v>1.056610662288602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043179070491459</v>
+        <v>1.039089787783681</v>
       </c>
       <c r="J19">
-        <v>1.020221211988306</v>
+        <v>1.046022772896246</v>
       </c>
       <c r="K19">
-        <v>1.036451697760951</v>
+        <v>1.038596627378582</v>
       </c>
       <c r="L19">
-        <v>1.022446650440978</v>
+        <v>1.050937485489089</v>
       </c>
       <c r="M19">
-        <v>1.0280271275252</v>
+        <v>1.05985124569469</v>
       </c>
       <c r="N19">
-        <v>1.010068919223303</v>
+        <v>1.019150701794511</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9910275635190584</v>
+        <v>1.039591566163209</v>
       </c>
       <c r="D20">
-        <v>1.022150169572087</v>
+        <v>1.035103179663259</v>
       </c>
       <c r="E20">
-        <v>1.007163125290204</v>
+        <v>1.047326728760964</v>
       </c>
       <c r="F20">
-        <v>1.012683938814919</v>
+        <v>1.056236221773409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042659018429267</v>
+        <v>1.039010563835406</v>
       </c>
       <c r="J20">
-        <v>1.018908793409722</v>
+        <v>1.045763586020131</v>
       </c>
       <c r="K20">
-        <v>1.035814404568781</v>
+        <v>1.038479856188981</v>
       </c>
       <c r="L20">
-        <v>1.021081178425762</v>
+        <v>1.050661170138048</v>
       </c>
       <c r="M20">
-        <v>1.026507363771746</v>
+        <v>1.059540555481801</v>
       </c>
       <c r="N20">
-        <v>1.009615149308815</v>
+        <v>1.01906240921394</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.984382459806501</v>
+        <v>1.03835149732299</v>
       </c>
       <c r="D21">
-        <v>1.019068828547341</v>
+        <v>1.034513881229201</v>
       </c>
       <c r="E21">
-        <v>1.001597090648286</v>
+        <v>1.046220184729437</v>
       </c>
       <c r="F21">
-        <v>1.006607001557196</v>
+        <v>1.055019780693566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040922134830108</v>
+        <v>1.038751508058328</v>
       </c>
       <c r="J21">
-        <v>1.01454797370736</v>
+        <v>1.044920407361662</v>
       </c>
       <c r="K21">
-        <v>1.033697723035472</v>
+        <v>1.03809955889174</v>
       </c>
       <c r="L21">
-        <v>1.016548268698765</v>
+        <v>1.049762698059741</v>
       </c>
       <c r="M21">
-        <v>1.021464274147261</v>
+        <v>1.058530543704006</v>
       </c>
       <c r="N21">
-        <v>1.008106923168566</v>
+        <v>1.018774995365855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9800906119012416</v>
+        <v>1.03757198435155</v>
       </c>
       <c r="D22">
-        <v>1.017090777119801</v>
+        <v>1.034143638836303</v>
       </c>
       <c r="E22">
-        <v>0.9980116366823283</v>
+        <v>1.04552500387944</v>
       </c>
       <c r="F22">
-        <v>1.002692563637203</v>
+        <v>1.054255646734738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039793234151809</v>
+        <v>1.038587487702396</v>
       </c>
       <c r="J22">
-        <v>1.011730220338725</v>
+        <v>1.044389855423486</v>
       </c>
       <c r="K22">
-        <v>1.032331098985307</v>
+        <v>1.037859946407079</v>
       </c>
       <c r="L22">
-        <v>1.013622586616508</v>
+        <v>1.049197682515814</v>
       </c>
       <c r="M22">
-        <v>1.018210868364587</v>
+        <v>1.057895564543484</v>
       </c>
       <c r="N22">
-        <v>1.007132074349766</v>
+        <v>1.018594006651591</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9823770177014843</v>
+        <v>1.037985203261759</v>
       </c>
       <c r="D23">
-        <v>1.018143352502645</v>
+        <v>1.034339885027687</v>
       </c>
       <c r="E23">
-        <v>0.9999208024290936</v>
+        <v>1.045893480491987</v>
       </c>
       <c r="F23">
-        <v>1.004776896834924</v>
+        <v>1.054660663119889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040395278963774</v>
+        <v>1.038674546138938</v>
       </c>
       <c r="J23">
-        <v>1.013231423004798</v>
+        <v>1.04467115012651</v>
       </c>
       <c r="K23">
-        <v>1.033059062173849</v>
+        <v>1.037987017104066</v>
       </c>
       <c r="L23">
-        <v>1.015180980525048</v>
+        <v>1.049497218418256</v>
       </c>
       <c r="M23">
-        <v>1.019943680159709</v>
+        <v>1.058232173763461</v>
       </c>
       <c r="N23">
-        <v>1.007651465453283</v>
+        <v>1.018689978727774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9911371324512319</v>
+        <v>1.039612358970757</v>
       </c>
       <c r="D24">
-        <v>1.022201163922853</v>
+        <v>1.035113063859505</v>
       </c>
       <c r="E24">
-        <v>1.007255051659819</v>
+        <v>1.047345289390348</v>
       </c>
       <c r="F24">
-        <v>1.012784305752311</v>
+        <v>1.056256627281199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042687534314951</v>
+        <v>1.039014887568531</v>
       </c>
       <c r="J24">
-        <v>1.018980672047393</v>
+        <v>1.045777715043418</v>
       </c>
       <c r="K24">
-        <v>1.035849305601667</v>
+        <v>1.038486223319973</v>
       </c>
       <c r="L24">
-        <v>1.021155947192809</v>
+        <v>1.05067623126931</v>
       </c>
       <c r="M24">
-        <v>1.02659057356145</v>
+        <v>1.059557489401654</v>
       </c>
       <c r="N24">
-        <v>1.00964000329276</v>
+        <v>1.019067222989103</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000847245655113</v>
+        <v>1.041501333641924</v>
       </c>
       <c r="D25">
-        <v>1.026743771156237</v>
+        <v>1.036011439130826</v>
       </c>
       <c r="E25">
-        <v>1.015421160964119</v>
+        <v>1.049032412698586</v>
       </c>
       <c r="F25">
-        <v>1.021700730843395</v>
+        <v>1.058111662716698</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045196469024432</v>
+        <v>1.039404855610615</v>
       </c>
       <c r="J25">
-        <v>1.025346130207497</v>
+        <v>1.047060030263275</v>
       </c>
       <c r="K25">
-        <v>1.038940640141294</v>
+        <v>1.039063304069577</v>
       </c>
       <c r="L25">
-        <v>1.027784708688558</v>
+        <v>1.052043928814872</v>
       </c>
       <c r="M25">
-        <v>1.033971258449387</v>
+        <v>1.061095685063177</v>
       </c>
       <c r="N25">
-        <v>1.011840058428739</v>
+        <v>1.019503770993307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043008604067959</v>
+        <v>1.008263919370545</v>
       </c>
       <c r="D2">
-        <v>1.036728855291699</v>
+        <v>1.030243686282349</v>
       </c>
       <c r="E2">
-        <v>1.050379973544527</v>
+        <v>1.021684861039946</v>
       </c>
       <c r="F2">
-        <v>1.059593659591669</v>
+        <v>1.028540893790463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039711868729749</v>
+        <v>1.0470849533823</v>
       </c>
       <c r="J2">
-        <v>1.048081359011294</v>
+        <v>1.030200236532479</v>
       </c>
       <c r="K2">
-        <v>1.039521765596109</v>
+        <v>1.041297164045321</v>
       </c>
       <c r="L2">
-        <v>1.05313441241268</v>
+        <v>1.032850136667545</v>
       </c>
       <c r="M2">
-        <v>1.062322739536633</v>
+        <v>1.039616428318994</v>
       </c>
       <c r="N2">
-        <v>1.019850971105894</v>
+        <v>1.013516105912585</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044103394530057</v>
+        <v>1.01347614121852</v>
       </c>
       <c r="D3">
-        <v>1.037250246682439</v>
+        <v>1.032718288500819</v>
       </c>
       <c r="E3">
-        <v>1.051359533167427</v>
+        <v>1.026100793462978</v>
       </c>
       <c r="F3">
-        <v>1.060671129212168</v>
+        <v>1.033363920158284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039932449134138</v>
+        <v>1.048394920135688</v>
       </c>
       <c r="J3">
-        <v>1.048822099949598</v>
+        <v>1.033606055004312</v>
       </c>
       <c r="K3">
-        <v>1.039853583086355</v>
+        <v>1.042948972120388</v>
       </c>
       <c r="L3">
-        <v>1.053925976040393</v>
+        <v>1.036410256280879</v>
       </c>
       <c r="M3">
-        <v>1.063213803428208</v>
+        <v>1.043586984635954</v>
       </c>
       <c r="N3">
-        <v>1.020102494061603</v>
+        <v>1.014690960224276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044811976759894</v>
+        <v>1.016773965437365</v>
       </c>
       <c r="D4">
-        <v>1.037587837719835</v>
+        <v>1.034290145342307</v>
       </c>
       <c r="E4">
-        <v>1.051993887745394</v>
+        <v>1.02890089393144</v>
       </c>
       <c r="F4">
-        <v>1.061368976404196</v>
+        <v>1.03642251612164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040074095910541</v>
+        <v>1.049215444379503</v>
       </c>
       <c r="J4">
-        <v>1.049301023533619</v>
+        <v>1.035758110961887</v>
       </c>
       <c r="K4">
-        <v>1.040067793559723</v>
+        <v>1.043991609915021</v>
       </c>
       <c r="L4">
-        <v>1.054438067228384</v>
+        <v>1.038662588066279</v>
       </c>
       <c r="M4">
-        <v>1.063790434252316</v>
+        <v>1.046100362223481</v>
       </c>
       <c r="N4">
-        <v>1.020264979662287</v>
+        <v>1.015432749702266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045109908061339</v>
+        <v>1.018143175367825</v>
       </c>
       <c r="D5">
-        <v>1.037729811360415</v>
+        <v>1.034944124744761</v>
       </c>
       <c r="E5">
-        <v>1.052260693164548</v>
+        <v>1.0300648665651</v>
       </c>
       <c r="F5">
-        <v>1.061662507294455</v>
+        <v>1.037694035630677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04013338451634</v>
+        <v>1.049554071957077</v>
       </c>
       <c r="J5">
-        <v>1.049502270632579</v>
+        <v>1.036650891318939</v>
       </c>
       <c r="K5">
-        <v>1.040157727762183</v>
+        <v>1.044423833358356</v>
       </c>
       <c r="L5">
-        <v>1.054653325411766</v>
+        <v>1.039597632842651</v>
       </c>
       <c r="M5">
-        <v>1.064032862300714</v>
+        <v>1.047144110805032</v>
       </c>
       <c r="N5">
-        <v>1.020333224641996</v>
+        <v>1.015740335609143</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045159934588733</v>
+        <v>1.018372083556459</v>
       </c>
       <c r="D6">
-        <v>1.037753652274269</v>
+        <v>1.03505353601904</v>
       </c>
       <c r="E6">
-        <v>1.052305498158192</v>
+        <v>1.030259544087779</v>
       </c>
       <c r="F6">
-        <v>1.061711801559738</v>
+        <v>1.037906706302205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040143324096326</v>
+        <v>1.049610563122106</v>
       </c>
       <c r="J6">
-        <v>1.049536055485459</v>
+        <v>1.036800105056459</v>
       </c>
       <c r="K6">
-        <v>1.040172821058902</v>
+        <v>1.044496052527315</v>
       </c>
       <c r="L6">
-        <v>1.054689466739099</v>
+        <v>1.039753949463633</v>
       </c>
       <c r="M6">
-        <v>1.064073567760654</v>
+        <v>1.047318619578868</v>
       </c>
       <c r="N6">
-        <v>1.020344679518999</v>
+        <v>1.015791734818239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044815957561826</v>
+        <v>1.016792327530985</v>
       </c>
       <c r="D7">
-        <v>1.037589734582338</v>
+        <v>1.034298910418691</v>
       </c>
       <c r="E7">
-        <v>1.051997452330492</v>
+        <v>1.028916498137603</v>
       </c>
       <c r="F7">
-        <v>1.0613728979659</v>
+        <v>1.036439561724662</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040074889148616</v>
+        <v>1.049219993755957</v>
       </c>
       <c r="J7">
-        <v>1.049303712970333</v>
+        <v>1.035770086701225</v>
       </c>
       <c r="K7">
-        <v>1.040068995736929</v>
+        <v>1.043997409062845</v>
       </c>
       <c r="L7">
-        <v>1.054440943617053</v>
+        <v>1.038675128112243</v>
       </c>
       <c r="M7">
-        <v>1.06379367353911</v>
+        <v>1.046114358802212</v>
       </c>
       <c r="N7">
-        <v>1.020265891806578</v>
+        <v>1.015436876239304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043378556645825</v>
+        <v>1.010041355064093</v>
       </c>
       <c r="D8">
-        <v>1.036905016443673</v>
+        <v>1.031086198175291</v>
       </c>
       <c r="E8">
-        <v>1.050710913698658</v>
+        <v>1.023189438873904</v>
       </c>
       <c r="F8">
-        <v>1.059957660292417</v>
+        <v>1.030184103169057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039786639069587</v>
+        <v>1.047533381803023</v>
       </c>
       <c r="J8">
-        <v>1.048331775589814</v>
+        <v>1.031362235210869</v>
       </c>
       <c r="K8">
-        <v>1.039634007460016</v>
+        <v>1.041860928400508</v>
       </c>
       <c r="L8">
-        <v>1.053401946340562</v>
+        <v>1.034064195500205</v>
       </c>
       <c r="M8">
-        <v>1.062623867667314</v>
+        <v>1.040970163245876</v>
       </c>
       <c r="N8">
-        <v>1.019936029571964</v>
+        <v>1.013917058781781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040847032691273</v>
+        <v>0.9975375838116692</v>
       </c>
       <c r="D9">
-        <v>1.035700167930533</v>
+        <v>1.025190292125009</v>
       </c>
       <c r="E9">
-        <v>1.04844781768299</v>
+        <v>1.012633415813656</v>
       </c>
       <c r="F9">
-        <v>1.057468836342651</v>
+        <v>1.018656713675266</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039270420835465</v>
+        <v>1.044345561298851</v>
       </c>
       <c r="J9">
-        <v>1.046616151749506</v>
+        <v>1.023177597004041</v>
       </c>
       <c r="K9">
-        <v>1.038863724109309</v>
+        <v>1.037887479904469</v>
       </c>
       <c r="L9">
-        <v>1.051570316696272</v>
+        <v>1.025524796800884</v>
       </c>
       <c r="M9">
-        <v>1.060562934571793</v>
+        <v>1.031454180727363</v>
       </c>
       <c r="N9">
-        <v>1.019352735012046</v>
+        <v>1.011090798642405</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039160240285105</v>
+        <v>0.9887410483604646</v>
       </c>
       <c r="D10">
-        <v>1.034898165252285</v>
+        <v>1.021087380421354</v>
       </c>
       <c r="E10">
-        <v>1.046941757174747</v>
+        <v>1.005245891760282</v>
       </c>
       <c r="F10">
-        <v>1.055812996406627</v>
+        <v>1.010590689600481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03892072262494</v>
+        <v>1.042062996963817</v>
       </c>
       <c r="J10">
-        <v>1.045470426569999</v>
+        <v>1.017408603618662</v>
       </c>
       <c r="K10">
-        <v>1.038347705177004</v>
+        <v>1.035086055225474</v>
       </c>
       <c r="L10">
-        <v>1.050348712311289</v>
+        <v>1.019521071606983</v>
       </c>
       <c r="M10">
-        <v>1.059189267635125</v>
+        <v>1.024771322951791</v>
       </c>
       <c r="N10">
-        <v>1.018962511594702</v>
+        <v>1.009096371642017</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038430045435851</v>
+        <v>0.9848099326352204</v>
       </c>
       <c r="D11">
-        <v>1.034551197302421</v>
+        <v>1.019266369081791</v>
       </c>
       <c r="E11">
-        <v>1.04629025199474</v>
+        <v>1.001954611468205</v>
       </c>
       <c r="F11">
-        <v>1.055096801512137</v>
+        <v>1.006997330885078</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038767985842994</v>
+        <v>1.041034285533767</v>
       </c>
       <c r="J11">
-        <v>1.044973846509021</v>
+        <v>1.014828580178588</v>
       </c>
       <c r="K11">
-        <v>1.03812368013332</v>
+        <v>1.03383387187107</v>
       </c>
       <c r="L11">
-        <v>1.049819622428933</v>
+        <v>1.016839760578449</v>
       </c>
       <c r="M11">
-        <v>1.058594524396468</v>
+        <v>1.021788483328233</v>
       </c>
       <c r="N11">
-        <v>1.018793219310591</v>
+        <v>1.008203992093533</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038158847566999</v>
+        <v>0.9833301867360096</v>
       </c>
       <c r="D12">
-        <v>1.034422365017488</v>
+        <v>1.018582962743577</v>
       </c>
       <c r="E12">
-        <v>1.046048348550119</v>
+        <v>1.00071732580571</v>
       </c>
       <c r="F12">
-        <v>1.054830894242078</v>
+        <v>1.005646507219068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038711055248649</v>
+        <v>1.040645833635694</v>
       </c>
       <c r="J12">
-        <v>1.044789323351561</v>
+        <v>1.013857190855129</v>
       </c>
       <c r="K12">
-        <v>1.038040380003266</v>
+        <v>1.033362597079996</v>
       </c>
       <c r="L12">
-        <v>1.049623075791813</v>
+        <v>1.015830795876916</v>
       </c>
       <c r="M12">
-        <v>1.058373619839432</v>
+        <v>1.020666322745746</v>
       </c>
       <c r="N12">
-        <v>1.018730288178165</v>
+        <v>1.007867954259624</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038217019128038</v>
+        <v>0.983648502544997</v>
       </c>
       <c r="D13">
-        <v>1.034449997829352</v>
+        <v>1.018729878092902</v>
       </c>
       <c r="E13">
-        <v>1.046100233378356</v>
+        <v>1.000983410347422</v>
       </c>
       <c r="F13">
-        <v>1.054887926850861</v>
+        <v>1.005937007846198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038723275981272</v>
+        <v>1.040729449670234</v>
       </c>
       <c r="J13">
-        <v>1.044828907418923</v>
+        <v>1.014066160296404</v>
       </c>
       <c r="K13">
-        <v>1.038058252101125</v>
+        <v>1.033463970471789</v>
       </c>
       <c r="L13">
-        <v>1.049665236576815</v>
+        <v>1.016047823312989</v>
       </c>
       <c r="M13">
-        <v>1.058421004183947</v>
+        <v>1.020907686398628</v>
       </c>
       <c r="N13">
-        <v>1.018743789310409</v>
+        <v>1.007940246390337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038407627547335</v>
+        <v>0.984688022591002</v>
       </c>
       <c r="D14">
-        <v>1.034540547017975</v>
+        <v>1.019210023313262</v>
       </c>
       <c r="E14">
-        <v>1.046270254250443</v>
+        <v>1.001852643383994</v>
       </c>
       <c r="F14">
-        <v>1.055074819098442</v>
+        <v>1.006886005434329</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038763283966892</v>
+        <v>1.041002307073522</v>
       </c>
       <c r="J14">
-        <v>1.044958595220405</v>
+        <v>1.014748555575758</v>
       </c>
       <c r="K14">
-        <v>1.038116796294493</v>
+        <v>1.033795043450362</v>
       </c>
       <c r="L14">
-        <v>1.049803376212156</v>
+        <v>1.016756629050097</v>
       </c>
       <c r="M14">
-        <v>1.058576264161753</v>
+        <v>1.021696019813654</v>
       </c>
       <c r="N14">
-        <v>1.018788018391248</v>
+        <v>1.008176309779366</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038525071510203</v>
+        <v>0.9853258763846355</v>
       </c>
       <c r="D15">
-        <v>1.034596343636686</v>
+        <v>1.019504918631329</v>
       </c>
       <c r="E15">
-        <v>1.046375022257715</v>
+        <v>1.002386223788225</v>
       </c>
       <c r="F15">
-        <v>1.055189985402522</v>
+        <v>1.007468552067857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038787908063082</v>
+        <v>1.041169574266084</v>
       </c>
       <c r="J15">
-        <v>1.045038490716568</v>
+        <v>1.015167249153021</v>
       </c>
       <c r="K15">
-        <v>1.038152855763158</v>
+        <v>1.033998203785499</v>
       </c>
       <c r="L15">
-        <v>1.049888486070198</v>
+        <v>1.017191601086017</v>
       </c>
       <c r="M15">
-        <v>1.058671926225678</v>
+        <v>1.022179830851623</v>
       </c>
       <c r="N15">
-        <v>1.018815262971331</v>
+        <v>1.008321143221029</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039208705016029</v>
+        <v>0.9889992695421507</v>
       </c>
       <c r="D16">
-        <v>1.034921198900092</v>
+        <v>1.021207271592533</v>
       </c>
       <c r="E16">
-        <v>1.046985008687264</v>
+        <v>1.00546230300215</v>
       </c>
       <c r="F16">
-        <v>1.055860544647272</v>
+        <v>1.010826966908003</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03893083157335</v>
+        <v>1.042130395623194</v>
       </c>
       <c r="J16">
-        <v>1.045503372970716</v>
+        <v>1.017578042225325</v>
       </c>
       <c r="K16">
-        <v>1.038362560706739</v>
+        <v>1.035168310586052</v>
       </c>
       <c r="L16">
-        <v>1.050383823586051</v>
+        <v>1.019697239287283</v>
       </c>
       <c r="M16">
-        <v>1.0592287401258</v>
+        <v>1.024967338737875</v>
       </c>
       <c r="N16">
-        <v>1.018973740168471</v>
+        <v>1.009154969160602</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039637582643728</v>
+        <v>0.9912699695776684</v>
       </c>
       <c r="D17">
-        <v>1.035125054476712</v>
+        <v>1.022262995545459</v>
       </c>
       <c r="E17">
-        <v>1.047367805514918</v>
+        <v>1.007366506170283</v>
       </c>
       <c r="F17">
-        <v>1.056281381518331</v>
+        <v>1.012905994020595</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039020131777112</v>
+        <v>1.042722100203958</v>
       </c>
       <c r="J17">
-        <v>1.045794854504768</v>
+        <v>1.01906781364773</v>
       </c>
       <c r="K17">
-        <v>1.038493946834652</v>
+        <v>1.03589161803426</v>
       </c>
       <c r="L17">
-        <v>1.050694501689764</v>
+        <v>1.021246595015706</v>
       </c>
       <c r="M17">
-        <v>1.059578031808623</v>
+        <v>1.026691456228146</v>
       </c>
       <c r="N17">
-        <v>1.019073062317384</v>
+        <v>1.009670134574898</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039887758796704</v>
+        <v>0.9925827303437739</v>
       </c>
       <c r="D18">
-        <v>1.03524398927799</v>
+        <v>1.022874518620508</v>
       </c>
       <c r="E18">
-        <v>1.047591145107153</v>
+        <v>1.008468339540398</v>
       </c>
       <c r="F18">
-        <v>1.05652692522429</v>
+        <v>1.014109006325358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039072092166613</v>
+        <v>1.043063358819843</v>
       </c>
       <c r="J18">
-        <v>1.0459648250714</v>
+        <v>1.019928911760033</v>
       </c>
       <c r="K18">
-        <v>1.038570525606724</v>
+        <v>1.036309753609137</v>
       </c>
       <c r="L18">
-        <v>1.05087570270578</v>
+        <v>1.022142482070978</v>
       </c>
       <c r="M18">
-        <v>1.059781773874597</v>
+        <v>1.027688564400674</v>
       </c>
       <c r="N18">
-        <v>1.019130964079106</v>
+        <v>1.009967862582061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039973065657229</v>
+        <v>0.9930283981611546</v>
       </c>
       <c r="D19">
-        <v>1.035284547900148</v>
+        <v>1.023082318682516</v>
       </c>
       <c r="E19">
-        <v>1.047667308425874</v>
+        <v>1.008842559398086</v>
       </c>
       <c r="F19">
-        <v>1.056610662288602</v>
+        <v>1.014517593654518</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039089787783681</v>
+        <v>1.043179070491459</v>
       </c>
       <c r="J19">
-        <v>1.046022772896246</v>
+        <v>1.020221211988305</v>
       </c>
       <c r="K19">
-        <v>1.038596627378582</v>
+        <v>1.036451697760951</v>
       </c>
       <c r="L19">
-        <v>1.050937485489089</v>
+        <v>1.022446650440978</v>
       </c>
       <c r="M19">
-        <v>1.05985124569469</v>
+        <v>1.028027127525199</v>
       </c>
       <c r="N19">
-        <v>1.019150701794511</v>
+        <v>1.010068919223303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039591566163209</v>
+        <v>0.9910275635190585</v>
       </c>
       <c r="D20">
-        <v>1.035103179663259</v>
+        <v>1.022150169572087</v>
       </c>
       <c r="E20">
-        <v>1.047326728760964</v>
+        <v>1.007163125290204</v>
       </c>
       <c r="F20">
-        <v>1.056236221773409</v>
+        <v>1.012683938814919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039010563835406</v>
+        <v>1.042659018429267</v>
       </c>
       <c r="J20">
-        <v>1.045763586020131</v>
+        <v>1.018908793409722</v>
       </c>
       <c r="K20">
-        <v>1.038479856188981</v>
+        <v>1.035814404568781</v>
       </c>
       <c r="L20">
-        <v>1.050661170138048</v>
+        <v>1.021081178425763</v>
       </c>
       <c r="M20">
-        <v>1.059540555481801</v>
+        <v>1.026507363771747</v>
       </c>
       <c r="N20">
-        <v>1.01906240921394</v>
+        <v>1.009615149308815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.03835149732299</v>
+        <v>0.9843824598065014</v>
       </c>
       <c r="D21">
-        <v>1.034513881229201</v>
+        <v>1.019068828547342</v>
       </c>
       <c r="E21">
-        <v>1.046220184729437</v>
+        <v>1.001597090648287</v>
       </c>
       <c r="F21">
-        <v>1.055019780693566</v>
+        <v>1.006607001557196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038751508058328</v>
+        <v>1.040922134830108</v>
       </c>
       <c r="J21">
-        <v>1.044920407361662</v>
+        <v>1.014547973707361</v>
       </c>
       <c r="K21">
-        <v>1.03809955889174</v>
+        <v>1.033697723035472</v>
       </c>
       <c r="L21">
-        <v>1.049762698059741</v>
+        <v>1.016548268698765</v>
       </c>
       <c r="M21">
-        <v>1.058530543704006</v>
+        <v>1.021464274147262</v>
       </c>
       <c r="N21">
-        <v>1.018774995365855</v>
+        <v>1.008106923168566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03757198435155</v>
+        <v>0.9800906119012408</v>
       </c>
       <c r="D22">
-        <v>1.034143638836303</v>
+        <v>1.017090777119801</v>
       </c>
       <c r="E22">
-        <v>1.04552500387944</v>
+        <v>0.9980116366823282</v>
       </c>
       <c r="F22">
-        <v>1.054255646734738</v>
+        <v>1.002692563637202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038587487702396</v>
+        <v>1.039793234151808</v>
       </c>
       <c r="J22">
-        <v>1.044389855423486</v>
+        <v>1.011730220338724</v>
       </c>
       <c r="K22">
-        <v>1.037859946407079</v>
+        <v>1.032331098985307</v>
       </c>
       <c r="L22">
-        <v>1.049197682515814</v>
+        <v>1.013622586616508</v>
       </c>
       <c r="M22">
-        <v>1.057895564543484</v>
+        <v>1.018210868364587</v>
       </c>
       <c r="N22">
-        <v>1.018594006651591</v>
+        <v>1.007132074349765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037985203261759</v>
+        <v>0.982377017701484</v>
       </c>
       <c r="D23">
-        <v>1.034339885027687</v>
+        <v>1.018143352502645</v>
       </c>
       <c r="E23">
-        <v>1.045893480491987</v>
+        <v>0.999920802429093</v>
       </c>
       <c r="F23">
-        <v>1.054660663119889</v>
+        <v>1.004776896834923</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038674546138938</v>
+        <v>1.040395278963773</v>
       </c>
       <c r="J23">
-        <v>1.04467115012651</v>
+        <v>1.013231423004798</v>
       </c>
       <c r="K23">
-        <v>1.037987017104066</v>
+        <v>1.033059062173849</v>
       </c>
       <c r="L23">
-        <v>1.049497218418256</v>
+        <v>1.015180980525047</v>
       </c>
       <c r="M23">
-        <v>1.058232173763461</v>
+        <v>1.019943680159708</v>
       </c>
       <c r="N23">
-        <v>1.018689978727774</v>
+        <v>1.007651465453283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039612358970757</v>
+        <v>0.991137132451232</v>
       </c>
       <c r="D24">
-        <v>1.035113063859505</v>
+        <v>1.022201163922853</v>
       </c>
       <c r="E24">
-        <v>1.047345289390348</v>
+        <v>1.007255051659819</v>
       </c>
       <c r="F24">
-        <v>1.056256627281199</v>
+        <v>1.012784305752311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039014887568531</v>
+        <v>1.042687534314951</v>
       </c>
       <c r="J24">
-        <v>1.045777715043418</v>
+        <v>1.018980672047393</v>
       </c>
       <c r="K24">
-        <v>1.038486223319973</v>
+        <v>1.035849305601667</v>
       </c>
       <c r="L24">
-        <v>1.05067623126931</v>
+        <v>1.021155947192809</v>
       </c>
       <c r="M24">
-        <v>1.059557489401654</v>
+        <v>1.02659057356145</v>
       </c>
       <c r="N24">
-        <v>1.019067222989103</v>
+        <v>1.00964000329276</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041501333641924</v>
+        <v>1.000847245655113</v>
       </c>
       <c r="D25">
-        <v>1.036011439130826</v>
+        <v>1.026743771156237</v>
       </c>
       <c r="E25">
-        <v>1.049032412698586</v>
+        <v>1.015421160964119</v>
       </c>
       <c r="F25">
-        <v>1.058111662716698</v>
+        <v>1.021700730843395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039404855610615</v>
+        <v>1.045196469024432</v>
       </c>
       <c r="J25">
-        <v>1.047060030263275</v>
+        <v>1.025346130207497</v>
       </c>
       <c r="K25">
-        <v>1.039063304069577</v>
+        <v>1.038940640141294</v>
       </c>
       <c r="L25">
-        <v>1.052043928814872</v>
+        <v>1.027784708688558</v>
       </c>
       <c r="M25">
-        <v>1.061095685063177</v>
+        <v>1.033971258449387</v>
       </c>
       <c r="N25">
-        <v>1.019503770993307</v>
+        <v>1.011840058428739</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008263919370545</v>
+        <v>0.9679554025917699</v>
       </c>
       <c r="D2">
-        <v>1.030243686282349</v>
+        <v>1.031715706119801</v>
       </c>
       <c r="E2">
-        <v>1.021684861039946</v>
+        <v>0.9882651064511775</v>
       </c>
       <c r="F2">
-        <v>1.028540893790463</v>
+        <v>1.002494709660709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0470849533823</v>
+        <v>1.052614864844927</v>
       </c>
       <c r="J2">
-        <v>1.030200236532479</v>
+        <v>0.9911387102403069</v>
       </c>
       <c r="K2">
-        <v>1.041297164045321</v>
+        <v>1.042750189770582</v>
       </c>
       <c r="L2">
-        <v>1.032850136667545</v>
+        <v>0.9998903846546678</v>
       </c>
       <c r="M2">
-        <v>1.039616428318994</v>
+        <v>1.01391939828627</v>
       </c>
       <c r="N2">
-        <v>1.013516105912585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9979810015246314</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.01958834855075</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041298369632937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01347614121852</v>
+        <v>0.9759535900233272</v>
       </c>
       <c r="D3">
-        <v>1.032718288500819</v>
+        <v>1.034439458255106</v>
       </c>
       <c r="E3">
-        <v>1.026100793462978</v>
+        <v>0.9947848030074785</v>
       </c>
       <c r="F3">
-        <v>1.033363920158284</v>
+        <v>1.008263461891287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048394920135688</v>
+        <v>1.053507996487437</v>
       </c>
       <c r="J3">
-        <v>1.033606055004312</v>
+        <v>0.997121963605706</v>
       </c>
       <c r="K3">
-        <v>1.042948972120388</v>
+        <v>1.044649856380049</v>
       </c>
       <c r="L3">
-        <v>1.036410256280879</v>
+        <v>1.005484851055003</v>
       </c>
       <c r="M3">
-        <v>1.043586984635954</v>
+        <v>1.01879169084749</v>
       </c>
       <c r="N3">
-        <v>1.014690960224276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.00035339748317</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.023444546631808</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042638935470448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016773965437365</v>
+        <v>0.9809535489046265</v>
       </c>
       <c r="D4">
-        <v>1.034290145342307</v>
+        <v>1.036133409336444</v>
       </c>
       <c r="E4">
-        <v>1.02890089393144</v>
+        <v>0.9988670385334502</v>
       </c>
       <c r="F4">
-        <v>1.03642251612164</v>
+        <v>1.011883198039927</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049215444379503</v>
+        <v>1.054042170556441</v>
       </c>
       <c r="J4">
-        <v>1.035758110961887</v>
+        <v>1.00085734026273</v>
       </c>
       <c r="K4">
-        <v>1.043991609915021</v>
+        <v>1.045814450626915</v>
       </c>
       <c r="L4">
-        <v>1.038662588066279</v>
+        <v>1.00897915666232</v>
       </c>
       <c r="M4">
-        <v>1.046100362223481</v>
+        <v>1.021840288123045</v>
       </c>
       <c r="N4">
-        <v>1.015432749702266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.001829685375645</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.025857361601493</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043463288865272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018143175367825</v>
+        <v>0.9830161095350871</v>
       </c>
       <c r="D5">
-        <v>1.034944124744761</v>
+        <v>1.036820365902871</v>
       </c>
       <c r="E5">
-        <v>1.0300648665651</v>
+        <v>1.000552450083017</v>
       </c>
       <c r="F5">
-        <v>1.037694035630677</v>
+        <v>1.013379465408136</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049554071957077</v>
+        <v>1.054251776611012</v>
       </c>
       <c r="J5">
-        <v>1.036650891318939</v>
+        <v>1.002396957350113</v>
       </c>
       <c r="K5">
-        <v>1.044423833358356</v>
+        <v>1.046279834987323</v>
       </c>
       <c r="L5">
-        <v>1.039597632842651</v>
+        <v>1.010419779150407</v>
       </c>
       <c r="M5">
-        <v>1.047144110805032</v>
+        <v>1.023098430251759</v>
       </c>
       <c r="N5">
-        <v>1.015740335609143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.002436938028862</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.026853116796321</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043799485926269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018372083556459</v>
+        <v>0.983360181029543</v>
       </c>
       <c r="D6">
-        <v>1.03505353601904</v>
+        <v>1.036923559183466</v>
       </c>
       <c r="E6">
-        <v>1.030259544087779</v>
+        <v>1.000833686439558</v>
       </c>
       <c r="F6">
-        <v>1.037906706302205</v>
+        <v>1.013629245287656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049610563122106</v>
+        <v>1.054280661119951</v>
       </c>
       <c r="J6">
-        <v>1.036800105056459</v>
+        <v>1.002653714612135</v>
       </c>
       <c r="K6">
-        <v>1.044496052527315</v>
+        <v>1.046345994442321</v>
       </c>
       <c r="L6">
-        <v>1.039753949463633</v>
+        <v>1.010660048273329</v>
       </c>
       <c r="M6">
-        <v>1.047318619578868</v>
+        <v>1.023308339747226</v>
       </c>
       <c r="N6">
-        <v>1.015791734818239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.002538133064102</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027019249293179</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043854965548817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016792327530985</v>
+        <v>0.9809812606255873</v>
       </c>
       <c r="D7">
-        <v>1.034298910418691</v>
+        <v>1.036111273391725</v>
       </c>
       <c r="E7">
-        <v>1.028916498137603</v>
+        <v>0.9988896775633577</v>
       </c>
       <c r="F7">
-        <v>1.036439561724662</v>
+        <v>1.011903289320794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049219993755957</v>
+        <v>1.054029050242699</v>
       </c>
       <c r="J7">
-        <v>1.035770086701225</v>
+        <v>1.000878031128575</v>
       </c>
       <c r="K7">
-        <v>1.043997409062845</v>
+        <v>1.045789697503903</v>
       </c>
       <c r="L7">
-        <v>1.038675128112243</v>
+        <v>1.008998515719254</v>
       </c>
       <c r="M7">
-        <v>1.046114358802212</v>
+        <v>1.021857189973875</v>
       </c>
       <c r="N7">
-        <v>1.015436876239304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.001837851205671</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.025870738562227</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043465798598075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010041355064093</v>
+        <v>0.9706963730947351</v>
       </c>
       <c r="D8">
-        <v>1.031086198175291</v>
+        <v>1.03260585356644</v>
       </c>
       <c r="E8">
-        <v>1.023189438873904</v>
+        <v>0.9904979244821908</v>
       </c>
       <c r="F8">
-        <v>1.030184103169057</v>
+        <v>1.004468695792657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047533381803023</v>
+        <v>1.052903121643441</v>
       </c>
       <c r="J8">
-        <v>1.031362235210869</v>
+        <v>0.9931901596064916</v>
       </c>
       <c r="K8">
-        <v>1.041860928400508</v>
+        <v>1.043361553493803</v>
       </c>
       <c r="L8">
-        <v>1.034064195500205</v>
+        <v>1.001808164617781</v>
       </c>
       <c r="M8">
-        <v>1.040970163245876</v>
+        <v>1.015588474095628</v>
       </c>
       <c r="N8">
-        <v>1.013917058781781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9987953840600143</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020909348675681</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04175346688005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975375838116692</v>
+        <v>0.9510995078941479</v>
       </c>
       <c r="D9">
-        <v>1.025190292125009</v>
+        <v>1.025947010716002</v>
       </c>
       <c r="E9">
-        <v>1.012633415813656</v>
+        <v>0.9745694339030335</v>
       </c>
       <c r="F9">
-        <v>1.018656713675266</v>
+        <v>0.9904221049077299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044345561298851</v>
+        <v>1.050606670493525</v>
       </c>
       <c r="J9">
-        <v>1.023177597004041</v>
+        <v>0.9785056472581226</v>
       </c>
       <c r="K9">
-        <v>1.037887479904469</v>
+        <v>1.03863268935321</v>
       </c>
       <c r="L9">
-        <v>1.025524796800884</v>
+        <v>0.9880890348509325</v>
       </c>
       <c r="M9">
-        <v>1.031454180727363</v>
+        <v>1.003672511999683</v>
       </c>
       <c r="N9">
-        <v>1.011090798642405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9929483878915009</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.011478330737796</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038406695480405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9887410483604646</v>
+        <v>0.9372042201503944</v>
       </c>
       <c r="D10">
-        <v>1.021087380421354</v>
+        <v>1.02110146556607</v>
       </c>
       <c r="E10">
-        <v>1.005245891760282</v>
+        <v>0.9633924286739745</v>
       </c>
       <c r="F10">
-        <v>1.010590689600481</v>
+        <v>0.9806552682983648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042062996963817</v>
+        <v>1.048825044833017</v>
       </c>
       <c r="J10">
-        <v>1.017408603618662</v>
+        <v>0.9681515659949405</v>
       </c>
       <c r="K10">
-        <v>1.035086055225474</v>
+        <v>1.035099899453645</v>
       </c>
       <c r="L10">
-        <v>1.019521071606983</v>
+        <v>0.9784556707179239</v>
       </c>
       <c r="M10">
-        <v>1.024771322951791</v>
+        <v>0.9953828083857349</v>
       </c>
       <c r="N10">
-        <v>1.009096371642017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9888371159573854</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.004970892285286</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035925579649869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9848099326352204</v>
+        <v>0.9339906562565765</v>
       </c>
       <c r="D11">
-        <v>1.019266369081791</v>
+        <v>1.018835753426408</v>
       </c>
       <c r="E11">
-        <v>1.001954611468205</v>
+        <v>0.9613633390847169</v>
       </c>
       <c r="F11">
-        <v>1.006997330885078</v>
+        <v>0.9792266408151786</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041034285533767</v>
+        <v>1.047958405731333</v>
       </c>
       <c r="J11">
-        <v>1.014828580178588</v>
+        <v>0.9663929007451382</v>
       </c>
       <c r="K11">
-        <v>1.03383387187107</v>
+        <v>1.033410987307602</v>
       </c>
       <c r="L11">
-        <v>1.016839760578449</v>
+        <v>0.9770526183399598</v>
       </c>
       <c r="M11">
-        <v>1.021788483328233</v>
+        <v>0.9945512411608349</v>
       </c>
       <c r="N11">
-        <v>1.008203992093533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9884034564634638</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.004766648580401</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034764279347169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9833301867360096</v>
+        <v>0.9340820692744422</v>
       </c>
       <c r="D12">
-        <v>1.018582962743577</v>
+        <v>1.018013637475623</v>
       </c>
       <c r="E12">
-        <v>1.00071732580571</v>
+        <v>0.9618612832803032</v>
       </c>
       <c r="F12">
-        <v>1.005646507219068</v>
+        <v>0.9798920005909461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040645833635694</v>
+        <v>1.047644802585686</v>
       </c>
       <c r="J12">
-        <v>1.013857190855129</v>
+        <v>0.9669641593429535</v>
       </c>
       <c r="K12">
-        <v>1.033362597079996</v>
+        <v>1.032803674852104</v>
       </c>
       <c r="L12">
-        <v>1.015830795876916</v>
+        <v>0.9777575467818937</v>
       </c>
       <c r="M12">
-        <v>1.020666322745746</v>
+        <v>0.995414850847624</v>
       </c>
       <c r="N12">
-        <v>1.007867954259624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9888616220215869</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.005787717246451</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034334889399927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.983648502544997</v>
+        <v>0.9367003599061472</v>
       </c>
       <c r="D13">
-        <v>1.018729878092902</v>
+        <v>1.018198012391345</v>
       </c>
       <c r="E13">
-        <v>1.000983410347422</v>
+        <v>0.9643134591382692</v>
       </c>
       <c r="F13">
-        <v>1.005937007846198</v>
+        <v>0.9822053987917562</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040729449670234</v>
+        <v>1.047716200549022</v>
       </c>
       <c r="J13">
-        <v>1.014066160296404</v>
+        <v>0.9693446964448849</v>
       </c>
       <c r="K13">
-        <v>1.033463970471789</v>
+        <v>1.032941786737803</v>
       </c>
       <c r="L13">
-        <v>1.016047823312989</v>
+        <v>0.9801113948972703</v>
       </c>
       <c r="M13">
-        <v>1.020907686398628</v>
+        <v>0.9976364343840374</v>
       </c>
       <c r="N13">
-        <v>1.007940246390337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.990023432679091</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.007829146576728</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034430044465667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.984688022591002</v>
+        <v>0.9396326684134209</v>
       </c>
       <c r="D14">
-        <v>1.019210023313262</v>
+        <v>1.018771207122093</v>
       </c>
       <c r="E14">
-        <v>1.001852643383994</v>
+        <v>0.9668751179326673</v>
       </c>
       <c r="F14">
-        <v>1.006886005434329</v>
+        <v>0.9845373539189011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041002307073522</v>
+        <v>1.04793423915099</v>
       </c>
       <c r="J14">
-        <v>1.014748555575758</v>
+        <v>0.9717914522537362</v>
       </c>
       <c r="K14">
-        <v>1.033795043450362</v>
+        <v>1.033364117080851</v>
       </c>
       <c r="L14">
-        <v>1.016756629050097</v>
+        <v>0.9824678075172832</v>
       </c>
       <c r="M14">
-        <v>1.021696019813654</v>
+        <v>0.9997742460531008</v>
       </c>
       <c r="N14">
-        <v>1.008176309779366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9911385429256844</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.009696541646437</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03473007202289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9853258763846355</v>
+        <v>0.9408963747879925</v>
       </c>
       <c r="D15">
-        <v>1.019504918631329</v>
+        <v>1.019108068208946</v>
       </c>
       <c r="E15">
-        <v>1.002386223788225</v>
+        <v>0.9679302813356976</v>
       </c>
       <c r="F15">
-        <v>1.007468552067857</v>
+        <v>0.9854795133657235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041169574266084</v>
+        <v>1.048060129525918</v>
       </c>
       <c r="J15">
-        <v>1.015167249153021</v>
+        <v>0.9727853459275659</v>
       </c>
       <c r="K15">
-        <v>1.033998203785499</v>
+        <v>1.033608434236135</v>
       </c>
       <c r="L15">
-        <v>1.017191601086017</v>
+        <v>0.9834079767705919</v>
       </c>
       <c r="M15">
-        <v>1.022179830851623</v>
+        <v>1.000607076887294</v>
       </c>
       <c r="N15">
-        <v>1.008321143221029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9915634170985177</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.010393128045394</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034908687155652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9889992695421507</v>
+        <v>0.9462270371876259</v>
       </c>
       <c r="D16">
-        <v>1.021207271592533</v>
+        <v>1.021131959861315</v>
       </c>
       <c r="E16">
-        <v>1.00546230300215</v>
+        <v>0.9721385039198561</v>
       </c>
       <c r="F16">
-        <v>1.010826966908003</v>
+        <v>0.9891568181240684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042130395623194</v>
+        <v>1.048821683074063</v>
       </c>
       <c r="J16">
-        <v>1.017578042225325</v>
+        <v>0.9766651917159278</v>
       </c>
       <c r="K16">
-        <v>1.035168310586052</v>
+        <v>1.035094283000654</v>
       </c>
       <c r="L16">
-        <v>1.019697239287283</v>
+        <v>0.9869914926715201</v>
       </c>
       <c r="M16">
-        <v>1.024967338737875</v>
+        <v>1.003687386256246</v>
       </c>
       <c r="N16">
-        <v>1.009154969160602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9930524575647891</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.012788201267414</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035962398534004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9912699695776684</v>
+        <v>0.9487858570558408</v>
       </c>
       <c r="D17">
-        <v>1.022262995545459</v>
+        <v>1.022375989757669</v>
       </c>
       <c r="E17">
-        <v>1.007366506170283</v>
+        <v>0.9740320199144371</v>
       </c>
       <c r="F17">
-        <v>1.012905994020595</v>
+        <v>0.9907568787965937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042722100203958</v>
+        <v>1.049283697795482</v>
       </c>
       <c r="J17">
-        <v>1.01906781364773</v>
+        <v>0.9783650603712392</v>
       </c>
       <c r="K17">
-        <v>1.03589161803426</v>
+        <v>1.036002740848743</v>
       </c>
       <c r="L17">
-        <v>1.021246595015706</v>
+        <v>0.9885112151272525</v>
       </c>
       <c r="M17">
-        <v>1.026691456228146</v>
+        <v>1.004928937900231</v>
       </c>
       <c r="N17">
-        <v>1.009670134574898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9936126990644066</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.01363771731785</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036607293745202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925827303437739</v>
+        <v>0.9491842574457344</v>
       </c>
       <c r="D18">
-        <v>1.022874518620508</v>
+        <v>1.023127625980183</v>
       </c>
       <c r="E18">
-        <v>1.008468339540398</v>
+        <v>0.9740709307932975</v>
       </c>
       <c r="F18">
-        <v>1.014109006325358</v>
+        <v>0.9906531179596336</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043063358819843</v>
+        <v>1.049565349526274</v>
       </c>
       <c r="J18">
-        <v>1.019928911760033</v>
+        <v>0.9783147020284723</v>
       </c>
       <c r="K18">
-        <v>1.036309753609137</v>
+        <v>1.036558740779539</v>
       </c>
       <c r="L18">
-        <v>1.022142482070978</v>
+        <v>0.9883527645849878</v>
       </c>
       <c r="M18">
-        <v>1.027688564400674</v>
+        <v>1.004635165093306</v>
       </c>
       <c r="N18">
-        <v>1.009967862582061</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9934131630893325</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.013161916556738</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036988772198025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930283981611546</v>
+        <v>0.9476876095973651</v>
       </c>
       <c r="D19">
-        <v>1.023082318682516</v>
+        <v>1.02335527002698</v>
       </c>
       <c r="E19">
-        <v>1.008842559398086</v>
+        <v>0.9724809543180396</v>
       </c>
       <c r="F19">
-        <v>1.014517593654518</v>
+        <v>0.9890351302370441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043179070491459</v>
+        <v>1.049646710573687</v>
       </c>
       <c r="J19">
-        <v>1.020221211988305</v>
+        <v>0.9767365683298197</v>
       </c>
       <c r="K19">
-        <v>1.036451697760951</v>
+        <v>1.036720231999299</v>
       </c>
       <c r="L19">
-        <v>1.022446650440978</v>
+        <v>0.9867250344120648</v>
       </c>
       <c r="M19">
-        <v>1.028027127525199</v>
+        <v>1.002980278414588</v>
       </c>
       <c r="N19">
-        <v>1.010068919223303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9925693231196114</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.011518317681331</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037109338987922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9910275635190585</v>
+        <v>0.9408691504351773</v>
       </c>
       <c r="D20">
-        <v>1.022150169572087</v>
+        <v>1.022246233228502</v>
       </c>
       <c r="E20">
-        <v>1.007163125290204</v>
+        <v>0.9663386849657428</v>
       </c>
       <c r="F20">
-        <v>1.012683938814919</v>
+        <v>0.9832288129675237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042659018429267</v>
+        <v>1.049236113229908</v>
       </c>
       <c r="J20">
-        <v>1.018908793409722</v>
+        <v>0.970886439647173</v>
       </c>
       <c r="K20">
-        <v>1.035814404568781</v>
+        <v>1.035908872219014</v>
       </c>
       <c r="L20">
-        <v>1.021081178425763</v>
+        <v>0.981000429729955</v>
       </c>
       <c r="M20">
-        <v>1.026507363771747</v>
+        <v>0.9975731164001064</v>
       </c>
       <c r="N20">
-        <v>1.009615149308815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9899251795459449</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.006693374695875</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036539590958871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9843824598065014</v>
+        <v>0.9296012143717501</v>
       </c>
       <c r="D21">
-        <v>1.019068828547342</v>
+        <v>1.01856176257079</v>
       </c>
       <c r="E21">
-        <v>1.001597090648287</v>
+        <v>0.9571960184349495</v>
       </c>
       <c r="F21">
-        <v>1.006607001557196</v>
+        <v>0.9751880711745515</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040922134830108</v>
+        <v>1.047849518512411</v>
       </c>
       <c r="J21">
-        <v>1.014547973707361</v>
+        <v>0.9623685414201438</v>
       </c>
       <c r="K21">
-        <v>1.033697723035472</v>
+        <v>1.033199807862703</v>
       </c>
       <c r="L21">
-        <v>1.016548268698765</v>
+        <v>0.9730363825604192</v>
       </c>
       <c r="M21">
-        <v>1.021464274147262</v>
+        <v>0.99065526986676</v>
       </c>
       <c r="N21">
-        <v>1.008106923168566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9864921517233591</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.001175535459284</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03462742090255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800906119012408</v>
+        <v>0.9223618817470046</v>
       </c>
       <c r="D22">
-        <v>1.017090777119801</v>
+        <v>1.016211729832293</v>
       </c>
       <c r="E22">
-        <v>0.9980116366823282</v>
+        <v>0.9513712777877316</v>
       </c>
       <c r="F22">
-        <v>1.002692563637202</v>
+        <v>0.9700991758136287</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039793234151808</v>
+        <v>1.046951810210823</v>
       </c>
       <c r="J22">
-        <v>1.011730220338724</v>
+        <v>0.9569328863021893</v>
       </c>
       <c r="K22">
-        <v>1.032331098985307</v>
+        <v>1.031468728027043</v>
       </c>
       <c r="L22">
-        <v>1.013622586616508</v>
+        <v>0.967971811666155</v>
       </c>
       <c r="M22">
-        <v>1.018210868364587</v>
+        <v>0.986287193090905</v>
       </c>
       <c r="N22">
-        <v>1.007132074349765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9843141716953984</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9977182828737201</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033389965836677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.982377017701484</v>
+        <v>0.9262334551763777</v>
       </c>
       <c r="D23">
-        <v>1.018143352502645</v>
+        <v>1.017515413763637</v>
       </c>
       <c r="E23">
-        <v>0.999920802429093</v>
+        <v>0.9544846650699685</v>
       </c>
       <c r="F23">
-        <v>1.004776896834923</v>
+        <v>0.9728181274675607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040395278963773</v>
+        <v>1.047457812287321</v>
       </c>
       <c r="J23">
-        <v>1.013231423004798</v>
+        <v>0.959839821699647</v>
       </c>
       <c r="K23">
-        <v>1.033059062173849</v>
+        <v>1.032442726050402</v>
       </c>
       <c r="L23">
-        <v>1.015180980525047</v>
+        <v>0.9706799224430676</v>
       </c>
       <c r="M23">
-        <v>1.019943680159708</v>
+        <v>0.9886221911288959</v>
       </c>
       <c r="N23">
-        <v>1.007651465453283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9854790279974147</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.999566393363221</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034068981742208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.991137132451232</v>
+        <v>0.9407626905935386</v>
       </c>
       <c r="D24">
-        <v>1.022201163922853</v>
+        <v>1.022379448430007</v>
       </c>
       <c r="E24">
-        <v>1.007255051659819</v>
+        <v>0.9662021651694922</v>
       </c>
       <c r="F24">
-        <v>1.012784305752311</v>
+        <v>0.9830745274088528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042687534314951</v>
+        <v>1.049295374499285</v>
       </c>
       <c r="J24">
-        <v>1.018980672047393</v>
+        <v>0.9707484614447075</v>
       </c>
       <c r="K24">
-        <v>1.035849305601667</v>
+        <v>1.036024632562381</v>
       </c>
       <c r="L24">
-        <v>1.021155947192809</v>
+        <v>0.9808499956072438</v>
       </c>
       <c r="M24">
-        <v>1.02659057356145</v>
+        <v>0.9974055391072966</v>
       </c>
       <c r="N24">
-        <v>1.00964000329276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9898474000299124</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.006518211968578</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036594058347645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000847245655113</v>
+        <v>0.9563602747842209</v>
       </c>
       <c r="D25">
-        <v>1.026743771156237</v>
+        <v>1.027667473555823</v>
       </c>
       <c r="E25">
-        <v>1.015421160964119</v>
+        <v>0.9788372143135599</v>
       </c>
       <c r="F25">
-        <v>1.021700730843395</v>
+        <v>0.9941777907896973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045196469024432</v>
+        <v>1.051207802065179</v>
       </c>
       <c r="J25">
-        <v>1.025346130207497</v>
+        <v>0.9824511508874472</v>
       </c>
       <c r="K25">
-        <v>1.038940640141294</v>
+        <v>1.039850950245993</v>
       </c>
       <c r="L25">
-        <v>1.027784708688558</v>
+        <v>0.9917731863914884</v>
       </c>
       <c r="M25">
-        <v>1.033971258449387</v>
+        <v>1.006867166478668</v>
       </c>
       <c r="N25">
-        <v>1.011840058428739</v>
+        <v>0.9945229309067675</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.014006788090101</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039296591442814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9679554025917699</v>
+        <v>0.9714968272185185</v>
       </c>
       <c r="D2">
-        <v>1.031715706119801</v>
+        <v>1.032671052550762</v>
       </c>
       <c r="E2">
-        <v>0.9882651064511775</v>
+        <v>0.9911128507178498</v>
       </c>
       <c r="F2">
-        <v>1.002494709660709</v>
+        <v>1.004792145266205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052614864844927</v>
+        <v>1.053100012515649</v>
       </c>
       <c r="J2">
-        <v>0.9911387102403069</v>
+        <v>0.9945648196239449</v>
       </c>
       <c r="K2">
-        <v>1.042750189770582</v>
+        <v>1.04369324518314</v>
       </c>
       <c r="L2">
-        <v>0.9998903846546678</v>
+        <v>1.002697402070801</v>
       </c>
       <c r="M2">
-        <v>1.01391939828627</v>
+        <v>1.016185119190676</v>
       </c>
       <c r="N2">
-        <v>0.9979810015246314</v>
+        <v>1.003361239448718</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.01958834855075</v>
+        <v>1.021381566405802</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041298369632937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041973922719034</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02168279696274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9759535900233272</v>
+        <v>0.9790638292238935</v>
       </c>
       <c r="D3">
-        <v>1.034439458255106</v>
+        <v>1.034642566585707</v>
       </c>
       <c r="E3">
-        <v>0.9947848030074785</v>
+        <v>0.9972876500122304</v>
       </c>
       <c r="F3">
-        <v>1.008263461891287</v>
+        <v>1.010281712716647</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053507996487437</v>
+        <v>1.053611245033863</v>
       </c>
       <c r="J3">
-        <v>0.997121963605706</v>
+        <v>1.000141976182839</v>
       </c>
       <c r="K3">
-        <v>1.044649856380049</v>
+        <v>1.044850576411986</v>
       </c>
       <c r="L3">
-        <v>1.005484851055003</v>
+        <v>1.007955353908411</v>
       </c>
       <c r="M3">
-        <v>1.01879169084749</v>
+        <v>1.020784705915964</v>
       </c>
       <c r="N3">
-        <v>1.00035339748317</v>
+        <v>1.005142326592291</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.023444546631808</v>
+        <v>1.025021921112664</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042638935470448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042789322417292</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022177452463835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9809535489046265</v>
+        <v>0.9838027131025038</v>
       </c>
       <c r="D4">
-        <v>1.036133409336444</v>
+        <v>1.035879113606279</v>
       </c>
       <c r="E4">
-        <v>0.9988670385334502</v>
+        <v>1.001160781229674</v>
       </c>
       <c r="F4">
-        <v>1.011883198039927</v>
+        <v>1.013732283403291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054042170556441</v>
+        <v>1.053912814557926</v>
       </c>
       <c r="J4">
-        <v>1.00085734026273</v>
+        <v>1.003630022458152</v>
       </c>
       <c r="K4">
-        <v>1.045814450626915</v>
+        <v>1.045562967168456</v>
       </c>
       <c r="L4">
-        <v>1.00897915666232</v>
+        <v>1.01124521680494</v>
       </c>
       <c r="M4">
-        <v>1.021840288123045</v>
+        <v>1.023667749591765</v>
       </c>
       <c r="N4">
-        <v>1.001829685375645</v>
+        <v>1.006252373397491</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.025857361601493</v>
+        <v>1.027303703482007</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043463288865272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043294011146812</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022474858616132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9830161095350871</v>
+        <v>0.9857594240819095</v>
       </c>
       <c r="D5">
-        <v>1.036820365902871</v>
+        <v>1.036388149721047</v>
       </c>
       <c r="E5">
-        <v>1.000552450083017</v>
+        <v>1.002761356996307</v>
       </c>
       <c r="F5">
-        <v>1.013379465408136</v>
+        <v>1.015159941002588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054251776611012</v>
+        <v>1.054031852894685</v>
       </c>
       <c r="J5">
-        <v>1.002396957350113</v>
+        <v>1.005069048568522</v>
       </c>
       <c r="K5">
-        <v>1.046279834987323</v>
+        <v>1.045852273277077</v>
       </c>
       <c r="L5">
-        <v>1.010419779150407</v>
+        <v>1.012602802030937</v>
       </c>
       <c r="M5">
-        <v>1.023098430251759</v>
+        <v>1.024858677297941</v>
       </c>
       <c r="N5">
-        <v>1.002436938028862</v>
+        <v>1.006709343183663</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.026853116796321</v>
+        <v>1.028246259946011</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043799485926269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043506409279757</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022589975024446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.983360181029543</v>
+        <v>0.9860859417006399</v>
       </c>
       <c r="D6">
-        <v>1.036923559183466</v>
+        <v>1.036471139541299</v>
       </c>
       <c r="E6">
-        <v>1.000833686439558</v>
+        <v>1.003028521248567</v>
       </c>
       <c r="F6">
-        <v>1.013629245287656</v>
+        <v>1.015398341546334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054280661119951</v>
+        <v>1.054050446324456</v>
       </c>
       <c r="J6">
-        <v>1.002653714612135</v>
+        <v>1.005309106452161</v>
       </c>
       <c r="K6">
-        <v>1.046345994442321</v>
+        <v>1.045898424968658</v>
       </c>
       <c r="L6">
-        <v>1.010660048273329</v>
+        <v>1.012829292141919</v>
       </c>
       <c r="M6">
-        <v>1.023308339747226</v>
+        <v>1.02505743494752</v>
       </c>
       <c r="N6">
-        <v>1.002538133064102</v>
+        <v>1.006785514754634</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027019249293179</v>
+        <v>1.028403566016526</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043854965548817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043548600658719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022603430980409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9809812606255873</v>
+        <v>0.9838542781037848</v>
       </c>
       <c r="D7">
-        <v>1.036111273391725</v>
+        <v>1.035880105727482</v>
       </c>
       <c r="E7">
-        <v>0.9988896775633577</v>
+        <v>1.001205543945311</v>
       </c>
       <c r="F7">
-        <v>1.011903289320794</v>
+        <v>1.013769561021762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054029050242699</v>
+        <v>1.053911458719176</v>
       </c>
       <c r="J7">
-        <v>1.000878031128575</v>
+        <v>1.0036739631366</v>
       </c>
       <c r="K7">
-        <v>1.045789697503903</v>
+        <v>1.045561085549753</v>
       </c>
       <c r="L7">
-        <v>1.008998515719254</v>
+        <v>1.011286444275768</v>
       </c>
       <c r="M7">
-        <v>1.021857189973875</v>
+        <v>1.023701645636087</v>
       </c>
       <c r="N7">
-        <v>1.001837851205671</v>
+        <v>1.006296028870617</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.025870738562227</v>
+        <v>1.027330530431109</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043465798598075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043314665332055</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022461002798823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9706963730947351</v>
+        <v>0.9741681798961865</v>
       </c>
       <c r="D8">
-        <v>1.03260585356644</v>
+        <v>1.033335368472088</v>
       </c>
       <c r="E8">
-        <v>0.9904979244821908</v>
+        <v>0.9933002595984111</v>
       </c>
       <c r="F8">
-        <v>1.004468695792657</v>
+        <v>1.006726954455944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052903121643441</v>
+        <v>1.053273713372082</v>
       </c>
       <c r="J8">
-        <v>0.9931901596064916</v>
+        <v>0.996553198972382</v>
       </c>
       <c r="K8">
-        <v>1.043361553493803</v>
+        <v>1.044081957631537</v>
       </c>
       <c r="L8">
-        <v>1.001808164617781</v>
+        <v>1.004571754497374</v>
       </c>
       <c r="M8">
-        <v>1.015588474095628</v>
+        <v>1.017816569400413</v>
       </c>
       <c r="N8">
-        <v>0.9987953840600143</v>
+        <v>1.004088720605163</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020909348675681</v>
+        <v>1.022672784101274</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04175346688005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042273806848243</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021833320647144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9510995078941479</v>
+        <v>0.9557046002602495</v>
       </c>
       <c r="D9">
-        <v>1.025947010716002</v>
+        <v>1.028560056392759</v>
       </c>
       <c r="E9">
-        <v>0.9745694339030335</v>
+        <v>0.9782790338837142</v>
       </c>
       <c r="F9">
-        <v>0.9904221049077299</v>
+        <v>0.9934147854657036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050606670493525</v>
+        <v>1.051931032202239</v>
       </c>
       <c r="J9">
-        <v>0.9785056472581226</v>
+        <v>0.982924714849623</v>
       </c>
       <c r="K9">
-        <v>1.03863268935321</v>
+        <v>1.041206158333059</v>
       </c>
       <c r="L9">
-        <v>0.9880890348509325</v>
+        <v>0.9917346315296521</v>
       </c>
       <c r="M9">
-        <v>1.003672511999683</v>
+        <v>1.006615614435652</v>
       </c>
       <c r="N9">
-        <v>0.9929483878915009</v>
+        <v>0.9997307536342612</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.011478330737796</v>
+        <v>1.013807693797047</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038406695480405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040237012143812</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020579857553931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9372042201503944</v>
+        <v>0.9428015427425921</v>
       </c>
       <c r="D10">
-        <v>1.02110146556607</v>
+        <v>1.025158086322772</v>
       </c>
       <c r="E10">
-        <v>0.9633924286739745</v>
+        <v>0.9679105606671038</v>
       </c>
       <c r="F10">
-        <v>0.9806552682983648</v>
+        <v>0.9842986385442896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048825044833017</v>
+        <v>1.050877976919746</v>
       </c>
       <c r="J10">
-        <v>0.9681515659949405</v>
+        <v>0.973483888282112</v>
       </c>
       <c r="K10">
-        <v>1.035099899453645</v>
+        <v>1.039087490112115</v>
       </c>
       <c r="L10">
-        <v>0.9784556707179239</v>
+        <v>0.982884421976818</v>
       </c>
       <c r="M10">
-        <v>0.9953828083857349</v>
+        <v>0.9989572933359468</v>
       </c>
       <c r="N10">
-        <v>0.9888371159573854</v>
+        <v>0.9968563161074141</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.004970892285286</v>
+        <v>1.007799809225699</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035925579649869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038757395492991</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019615551944093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9339906562565765</v>
+        <v>0.9399665372748004</v>
       </c>
       <c r="D11">
-        <v>1.018835753426408</v>
+        <v>1.023611107198032</v>
       </c>
       <c r="E11">
-        <v>0.9613633390847169</v>
+        <v>0.9662118201733884</v>
       </c>
       <c r="F11">
-        <v>0.9792266408151786</v>
+        <v>0.9831261008131362</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047958405731333</v>
+        <v>1.050373518094455</v>
       </c>
       <c r="J11">
-        <v>0.9663929007451382</v>
+        <v>0.9720691110911602</v>
       </c>
       <c r="K11">
-        <v>1.033410987307602</v>
+        <v>1.038101078556553</v>
       </c>
       <c r="L11">
-        <v>0.9770526183399598</v>
+        <v>0.9818003576468796</v>
       </c>
       <c r="M11">
-        <v>0.9945512411608349</v>
+        <v>0.9983734076695808</v>
       </c>
       <c r="N11">
-        <v>0.9884034564634638</v>
+        <v>0.9968954599645523</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.004766648580401</v>
+        <v>1.007789944548867</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034764279347169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038095864133236</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019138601800667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9340820692744422</v>
+        <v>0.9400875755485057</v>
       </c>
       <c r="D12">
-        <v>1.018013637475623</v>
+        <v>1.023038825077009</v>
       </c>
       <c r="E12">
-        <v>0.9618612832803032</v>
+        <v>0.966741641226721</v>
       </c>
       <c r="F12">
-        <v>0.9798920005909461</v>
+        <v>0.9838119789414485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047644802585686</v>
+        <v>1.050185667413607</v>
       </c>
       <c r="J12">
-        <v>0.9669641593429535</v>
+        <v>0.9726633020648414</v>
       </c>
       <c r="K12">
-        <v>1.032803674852104</v>
+        <v>1.037737559260883</v>
       </c>
       <c r="L12">
-        <v>0.9777575467818937</v>
+        <v>0.9825350152705062</v>
       </c>
       <c r="M12">
-        <v>0.995414850847624</v>
+        <v>0.9992560292303927</v>
       </c>
       <c r="N12">
-        <v>0.9888616220215869</v>
+        <v>0.9973919662753736</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.005787717246451</v>
+        <v>1.008824951172132</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034334889399927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037838851520263</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01897237462762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9367003599061472</v>
+        <v>0.9424314220032498</v>
       </c>
       <c r="D13">
-        <v>1.018198012391345</v>
+        <v>1.02316419366891</v>
       </c>
       <c r="E13">
-        <v>0.9643134591382692</v>
+        <v>0.9689632587278935</v>
       </c>
       <c r="F13">
-        <v>0.9822053987917562</v>
+        <v>0.9859393572222361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047716200549022</v>
+        <v>1.05022735779213</v>
       </c>
       <c r="J13">
-        <v>0.9693446964448849</v>
+        <v>0.9747867063277648</v>
       </c>
       <c r="K13">
-        <v>1.032941786737803</v>
+        <v>1.037818073877924</v>
       </c>
       <c r="L13">
-        <v>0.9801113948972703</v>
+        <v>0.984664122313614</v>
       </c>
       <c r="M13">
-        <v>0.9976364343840374</v>
+        <v>1.00129602913608</v>
       </c>
       <c r="N13">
-        <v>0.990023432679091</v>
+        <v>0.9982100348846481</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.007829146576728</v>
+        <v>1.01072203620702</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034430044465667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037893052267211</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01901142819507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9396326684134209</v>
+        <v>0.9450451612062466</v>
       </c>
       <c r="D14">
-        <v>1.018771207122093</v>
+        <v>1.023564911344706</v>
       </c>
       <c r="E14">
-        <v>0.9668751179326673</v>
+        <v>0.9712553304989099</v>
       </c>
       <c r="F14">
-        <v>0.9845373539189011</v>
+        <v>0.9880559632661742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04793423915099</v>
+        <v>1.05035858502326</v>
       </c>
       <c r="J14">
-        <v>0.9717914522537362</v>
+        <v>0.9769365810224249</v>
       </c>
       <c r="K14">
-        <v>1.033364117080851</v>
+        <v>1.038072107401976</v>
       </c>
       <c r="L14">
-        <v>0.9824678075172832</v>
+        <v>0.9867581920204472</v>
       </c>
       <c r="M14">
-        <v>0.9997742460531008</v>
+        <v>1.003223967174139</v>
       </c>
       <c r="N14">
-        <v>0.9911385429256844</v>
+        <v>0.9989212151762927</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.009696541646437</v>
+        <v>1.012423148078692</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03473007202289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038074214175951</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0191263060664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9408963747879925</v>
+        <v>0.9461717066948694</v>
       </c>
       <c r="D15">
-        <v>1.019108068208946</v>
+        <v>1.023806402067621</v>
       </c>
       <c r="E15">
-        <v>0.9679302813356976</v>
+        <v>0.9721941633474679</v>
       </c>
       <c r="F15">
-        <v>0.9854795133657235</v>
+        <v>0.9889055756858056</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048060129525918</v>
+        <v>1.050436485374777</v>
       </c>
       <c r="J15">
-        <v>0.9727853459275659</v>
+        <v>0.9778030122044463</v>
       </c>
       <c r="K15">
-        <v>1.033608434236135</v>
+        <v>1.038223393934406</v>
       </c>
       <c r="L15">
-        <v>0.9834079767705919</v>
+        <v>0.987585257438657</v>
       </c>
       <c r="M15">
-        <v>1.000607076887294</v>
+        <v>1.003966683687294</v>
       </c>
       <c r="N15">
-        <v>0.9915634170985177</v>
+        <v>0.9991709393043164</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.010393128045394</v>
+        <v>1.013048439098167</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034908687155652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038187592030952</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019190241675908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9462270371876259</v>
+        <v>0.9509589603785922</v>
       </c>
       <c r="D16">
-        <v>1.021131959861315</v>
+        <v>1.025224592670646</v>
       </c>
       <c r="E16">
-        <v>0.9721385039198561</v>
+        <v>0.9759420440951739</v>
       </c>
       <c r="F16">
-        <v>0.9891568181240684</v>
+        <v>0.99221767671227</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048821683074063</v>
+        <v>1.05089292171321</v>
       </c>
       <c r="J16">
-        <v>0.9766651917159278</v>
+        <v>0.981179581257164</v>
       </c>
       <c r="K16">
-        <v>1.035094283000654</v>
+        <v>1.03911748479336</v>
       </c>
       <c r="L16">
-        <v>0.9869914926715201</v>
+        <v>0.9907216954550465</v>
       </c>
       <c r="M16">
-        <v>1.003687386256246</v>
+        <v>1.006691783951399</v>
       </c>
       <c r="N16">
-        <v>0.9930524575647891</v>
+        <v>0.9999612448838668</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.012788201267414</v>
+        <v>1.015162842476012</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035962398534004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038823190877619</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019594419368368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9487858570558408</v>
+        <v>0.9532968048258731</v>
       </c>
       <c r="D17">
-        <v>1.022375989757669</v>
+        <v>1.026100492926161</v>
       </c>
       <c r="E17">
-        <v>0.9740320199144371</v>
+        <v>0.9776496363692553</v>
       </c>
       <c r="F17">
-        <v>0.9907568787965937</v>
+        <v>0.9936705821631415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049283697795482</v>
+        <v>1.051169341390336</v>
       </c>
       <c r="J17">
-        <v>0.9783650603712392</v>
+        <v>0.98267607061804</v>
       </c>
       <c r="K17">
-        <v>1.036002740848743</v>
+        <v>1.039665855848844</v>
       </c>
       <c r="L17">
-        <v>0.9885112151272525</v>
+        <v>0.9920612356246421</v>
       </c>
       <c r="M17">
-        <v>1.004928937900231</v>
+        <v>1.00779050666499</v>
       </c>
       <c r="N17">
-        <v>0.9936126990644066</v>
+        <v>1.000236852026621</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.01363771731785</v>
+        <v>1.015899703039496</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036607293745202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039213727079842</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019840528138042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491842574457344</v>
+        <v>0.9536839272640963</v>
       </c>
       <c r="D18">
-        <v>1.023127625980183</v>
+        <v>1.026616761863988</v>
       </c>
       <c r="E18">
-        <v>0.9740709307932975</v>
+        <v>0.9776777826956463</v>
       </c>
       <c r="F18">
-        <v>0.9906531179596336</v>
+        <v>0.9935600115717493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049565349526274</v>
+        <v>1.05133222321247</v>
       </c>
       <c r="J18">
-        <v>0.9783147020284723</v>
+        <v>0.9826185836950374</v>
       </c>
       <c r="K18">
-        <v>1.036558740779539</v>
+        <v>1.0399913447392</v>
       </c>
       <c r="L18">
-        <v>0.9883527645849878</v>
+        <v>0.9918932819355897</v>
       </c>
       <c r="M18">
-        <v>1.004635165093306</v>
+        <v>1.007490841300811</v>
       </c>
       <c r="N18">
-        <v>0.9934131630893325</v>
+        <v>1.000026830388126</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.013161916556738</v>
+        <v>1.015419736075268</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036988772198025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039431138100372</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019997097556994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9476876095973651</v>
+        <v>0.9523361486948811</v>
       </c>
       <c r="D19">
-        <v>1.02335527002698</v>
+        <v>1.026784025111738</v>
       </c>
       <c r="E19">
-        <v>0.9724809543180396</v>
+        <v>0.9762094661619342</v>
       </c>
       <c r="F19">
-        <v>0.9890351302370441</v>
+        <v>0.9920420435573392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049646710573687</v>
+        <v>1.051383138267903</v>
       </c>
       <c r="J19">
-        <v>0.9767365683298197</v>
+        <v>0.981183179904364</v>
       </c>
       <c r="K19">
-        <v>1.036720231999299</v>
+        <v>1.040093756920901</v>
       </c>
       <c r="L19">
-        <v>0.9867250344120648</v>
+        <v>0.9903850659265379</v>
       </c>
       <c r="M19">
-        <v>1.002980278414588</v>
+        <v>1.005934280709595</v>
       </c>
       <c r="N19">
-        <v>0.9925693231196114</v>
+        <v>0.9993807233959984</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.011518317681331</v>
+        <v>1.013854683976057</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037109338987922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039510529466251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020037904683708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9408691504351773</v>
+        <v>0.9461194882568488</v>
       </c>
       <c r="D20">
-        <v>1.022246233228502</v>
+        <v>1.026007846042964</v>
       </c>
       <c r="E20">
-        <v>0.9663386849657428</v>
+        <v>0.9705643513513982</v>
       </c>
       <c r="F20">
-        <v>0.9832288129675237</v>
+        <v>0.9866389658013417</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049236113229908</v>
+        <v>1.051140467577269</v>
       </c>
       <c r="J20">
-        <v>0.970886439647173</v>
+        <v>0.9758979402088301</v>
       </c>
       <c r="K20">
-        <v>1.035908872219014</v>
+        <v>1.039608291675256</v>
       </c>
       <c r="L20">
-        <v>0.981000429729955</v>
+        <v>0.9851453216244377</v>
       </c>
       <c r="M20">
-        <v>0.9975731164001064</v>
+        <v>1.000920893171251</v>
       </c>
       <c r="N20">
-        <v>0.9899251795459449</v>
+        <v>0.997508996527298</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.006693374695875</v>
+        <v>1.00934290069955</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036539590958871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039171569203108</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019815635694113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9296012143717501</v>
+        <v>0.9361010748511601</v>
       </c>
       <c r="D21">
-        <v>1.01856176257079</v>
+        <v>1.023434547462025</v>
       </c>
       <c r="E21">
-        <v>0.9571960184349495</v>
+        <v>0.9624927469163819</v>
       </c>
       <c r="F21">
-        <v>0.9751880711745515</v>
+        <v>0.9794494185277881</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047849518512411</v>
+        <v>1.05031373502677</v>
       </c>
       <c r="J21">
-        <v>0.9623685414201438</v>
+        <v>0.96853657552634</v>
       </c>
       <c r="K21">
-        <v>1.033199807862703</v>
+        <v>1.037985142675742</v>
       </c>
       <c r="L21">
-        <v>0.9730363825604192</v>
+        <v>0.9782213376984766</v>
       </c>
       <c r="M21">
-        <v>0.99065526986676</v>
+        <v>0.9948308754814289</v>
       </c>
       <c r="N21">
-        <v>0.9864921517233591</v>
+        <v>0.9956366689247466</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.001175535459284</v>
+        <v>1.004480432695068</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03462742090255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03802749301011</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019074662490793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9223618817470046</v>
+        <v>0.9296988630108992</v>
       </c>
       <c r="D22">
-        <v>1.016211729832293</v>
+        <v>1.021787310649301</v>
       </c>
       <c r="E22">
-        <v>0.9513712777877316</v>
+        <v>0.9573885080181673</v>
       </c>
       <c r="F22">
-        <v>0.9700991758136287</v>
+        <v>0.9749322296898707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046951810210823</v>
+        <v>1.04976953423651</v>
       </c>
       <c r="J22">
-        <v>0.9569328863021893</v>
+        <v>0.9638677987292981</v>
       </c>
       <c r="K22">
-        <v>1.031468728027043</v>
+        <v>1.036939169674673</v>
       </c>
       <c r="L22">
-        <v>0.967971811666155</v>
+        <v>0.9738541586095201</v>
       </c>
       <c r="M22">
-        <v>0.986287193090905</v>
+        <v>0.9910171953847381</v>
       </c>
       <c r="N22">
-        <v>0.9843141716953984</v>
+        <v>0.9944639500059644</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9977182828737201</v>
+        <v>1.00146199199799</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033389965836677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03727321145127</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018606953098896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262334551763777</v>
+        <v>0.9330699667813925</v>
       </c>
       <c r="D23">
-        <v>1.017515413763637</v>
+        <v>1.022680137914083</v>
       </c>
       <c r="E23">
-        <v>0.9544846650699685</v>
+        <v>0.9600660155332877</v>
       </c>
       <c r="F23">
-        <v>0.9728181274675607</v>
+        <v>0.9773064087270741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047457812287321</v>
+        <v>1.050068838996474</v>
       </c>
       <c r="J23">
-        <v>0.959839821699647</v>
+        <v>0.9663154426049774</v>
       </c>
       <c r="K23">
-        <v>1.032442726050402</v>
+        <v>1.037512571067802</v>
       </c>
       <c r="L23">
-        <v>0.9706799224430676</v>
+        <v>0.9761400812568922</v>
       </c>
       <c r="M23">
-        <v>0.9886221911288959</v>
+        <v>0.9930176530882406</v>
       </c>
       <c r="N23">
-        <v>0.9854790279974147</v>
+        <v>0.9950252304140216</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.999566393363221</v>
+        <v>1.003045310395394</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034068981742208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037668093946666</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018878824005317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9407626905935386</v>
+        <v>0.9460237261336845</v>
       </c>
       <c r="D24">
-        <v>1.022379448430007</v>
+        <v>1.026071666195052</v>
       </c>
       <c r="E24">
-        <v>0.9662021651694922</v>
+        <v>0.970436462330635</v>
       </c>
       <c r="F24">
-        <v>0.9830745274088528</v>
+        <v>0.9864920733567243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049295374499285</v>
+        <v>1.051164634717675</v>
       </c>
       <c r="J24">
-        <v>0.9707484614447075</v>
+        <v>0.9757704410983216</v>
       </c>
       <c r="K24">
-        <v>1.036024632562381</v>
+        <v>1.039655897592099</v>
       </c>
       <c r="L24">
-        <v>0.9808499956072438</v>
+        <v>0.9850034297836415</v>
       </c>
       <c r="M24">
-        <v>0.9974055391072966</v>
+        <v>1.000760629873787</v>
       </c>
       <c r="N24">
-        <v>0.9898474000299124</v>
+        <v>0.9974451047824906</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.006518211968578</v>
+        <v>1.009173669215955</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036594058347645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039175293390726</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019860130397933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9563602747842209</v>
+        <v>0.9606173666154084</v>
       </c>
       <c r="D25">
-        <v>1.027667473555823</v>
+        <v>1.029813445269604</v>
       </c>
       <c r="E25">
-        <v>0.9788372143135599</v>
+        <v>0.9822642444644903</v>
       </c>
       <c r="F25">
-        <v>0.9941777907896973</v>
+        <v>0.9969426446314971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051207802065179</v>
+        <v>1.052296076515968</v>
       </c>
       <c r="J25">
-        <v>0.9824511508874472</v>
+        <v>0.9865469001394982</v>
       </c>
       <c r="K25">
-        <v>1.039850950245993</v>
+        <v>1.041965926089673</v>
       </c>
       <c r="L25">
-        <v>0.9917731863914884</v>
+        <v>0.9951442696012298</v>
       </c>
       <c r="M25">
-        <v>1.006867166478668</v>
+        <v>1.009588608238223</v>
       </c>
       <c r="N25">
-        <v>0.9945229309067675</v>
+        <v>1.000855637941096</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.014006788090101</v>
+        <v>1.016160706394683</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039296591442814</v>
+        <v>1.040805434007913</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020893887186345</v>
       </c>
     </row>
   </sheetData>
